--- a/BackTest/2019-10-28 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-28 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>481.2839</v>
       </c>
       <c r="G2" t="n">
-        <v>9817.508299999998</v>
+        <v>525.3333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>1238.3278</v>
       </c>
       <c r="G3" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>560.0511</v>
       </c>
       <c r="G4" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>765.9023</v>
       </c>
       <c r="G5" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>4011.0758</v>
       </c>
       <c r="G6" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>530.3977</v>
       </c>
       <c r="G7" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>36.6231</v>
       </c>
       <c r="G8" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>112</v>
       </c>
       <c r="G9" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>716.7285000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>226.1767</v>
       </c>
       <c r="G11" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>1217.4458</v>
       </c>
       <c r="G12" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>1279.1962</v>
       </c>
       <c r="G13" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -886,6 +903,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -907,7 +925,7 @@
         <v>1917.4331</v>
       </c>
       <c r="G15" t="n">
-        <v>9817.508299999998</v>
+        <v>528</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -927,6 +945,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -948,7 +967,7 @@
         <v>254.1877</v>
       </c>
       <c r="G16" t="n">
-        <v>9563.320599999997</v>
+        <v>525.3333333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -968,6 +987,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -989,7 +1009,7 @@
         <v>2927.214</v>
       </c>
       <c r="G17" t="n">
-        <v>12490.5346</v>
+        <v>525</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1009,6 +1029,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1030,7 +1051,7 @@
         <v>1930.2413</v>
       </c>
       <c r="G18" t="n">
-        <v>10560.2933</v>
+        <v>521.6666666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,6 +1071,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1071,7 +1093,7 @@
         <v>352</v>
       </c>
       <c r="G19" t="n">
-        <v>10912.2933</v>
+        <v>521.3333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1091,6 +1113,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1112,7 +1135,7 @@
         <v>5.5567</v>
       </c>
       <c r="G20" t="n">
-        <v>10917.85</v>
+        <v>521</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1132,6 +1155,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1153,7 +1177,7 @@
         <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>10945.85</v>
+        <v>525</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1173,6 +1197,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1194,7 +1219,7 @@
         <v>1003.279</v>
       </c>
       <c r="G22" t="n">
-        <v>10945.85</v>
+        <v>528.6666666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1214,6 +1239,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1235,7 +1261,7 @@
         <v>702.5538</v>
       </c>
       <c r="G23" t="n">
-        <v>10243.2962</v>
+        <v>529.6666666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1255,6 +1281,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1276,7 +1303,7 @@
         <v>488.8607</v>
       </c>
       <c r="G24" t="n">
-        <v>10243.2962</v>
+        <v>529.3333333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1296,6 +1323,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1317,7 +1345,7 @@
         <v>50.5646</v>
       </c>
       <c r="G25" t="n">
-        <v>10243.2962</v>
+        <v>529</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1339,6 +1367,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,7 +1389,7 @@
         <v>192.4</v>
       </c>
       <c r="G26" t="n">
-        <v>10050.8962</v>
+        <v>528.6666666666666</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1382,6 +1411,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1403,7 +1433,7 @@
         <v>511.4279</v>
       </c>
       <c r="G27" t="n">
-        <v>10050.8962</v>
+        <v>528.3333333333334</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1425,6 +1455,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1446,7 +1477,7 @@
         <v>3.5471</v>
       </c>
       <c r="G28" t="n">
-        <v>10050.8962</v>
+        <v>528</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1468,6 +1499,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1489,7 +1521,7 @@
         <v>96.3</v>
       </c>
       <c r="G29" t="n">
-        <v>10050.8962</v>
+        <v>528</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1511,6 +1543,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1532,7 +1565,7 @@
         <v>93.7623</v>
       </c>
       <c r="G30" t="n">
-        <v>10050.8962</v>
+        <v>528</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1554,6 +1587,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1575,7 +1609,7 @@
         <v>645.3735</v>
       </c>
       <c r="G31" t="n">
-        <v>10696.2697</v>
+        <v>528.3333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1597,6 +1631,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1618,7 +1653,7 @@
         <v>1157.8207</v>
       </c>
       <c r="G32" t="n">
-        <v>11854.0904</v>
+        <v>529</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1640,6 +1675,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1661,7 +1697,7 @@
         <v>1741.6254</v>
       </c>
       <c r="G33" t="n">
-        <v>13595.7158</v>
+        <v>531</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1683,6 +1719,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1704,7 +1741,7 @@
         <v>1923.412</v>
       </c>
       <c r="G34" t="n">
-        <v>11672.3038</v>
+        <v>532.3333333333334</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1726,6 +1763,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1747,7 +1785,7 @@
         <v>1660.581</v>
       </c>
       <c r="G35" t="n">
-        <v>11672.3038</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1769,6 +1807,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1790,7 +1829,7 @@
         <v>367.3334</v>
       </c>
       <c r="G36" t="n">
-        <v>11672.3038</v>
+        <v>533</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1812,6 +1851,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1833,7 +1873,7 @@
         <v>2155.7298</v>
       </c>
       <c r="G37" t="n">
-        <v>11672.3038</v>
+        <v>533</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1855,6 +1895,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1876,7 +1917,7 @@
         <v>1149.8217</v>
       </c>
       <c r="G38" t="n">
-        <v>11672.3038</v>
+        <v>533</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1896,6 +1937,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1917,7 +1959,7 @@
         <v>158.4409</v>
       </c>
       <c r="G39" t="n">
-        <v>11672.3038</v>
+        <v>533</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1937,6 +1979,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1958,7 +2001,7 @@
         <v>1579.5558</v>
       </c>
       <c r="G40" t="n">
-        <v>11672.3038</v>
+        <v>533</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1978,6 +2021,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1999,7 +2043,7 @@
         <v>158.4409</v>
       </c>
       <c r="G41" t="n">
-        <v>11513.8629</v>
+        <v>531</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2019,6 +2063,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2040,7 +2085,7 @@
         <v>878.4867</v>
       </c>
       <c r="G42" t="n">
-        <v>12392.3496</v>
+        <v>530.3333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2060,6 +2105,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2081,7 +2127,7 @@
         <v>436.6899</v>
       </c>
       <c r="G43" t="n">
-        <v>11955.6597</v>
+        <v>529</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2101,6 +2147,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2122,7 +2169,7 @@
         <v>292.2646</v>
       </c>
       <c r="G44" t="n">
-        <v>11955.6597</v>
+        <v>529.6666666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2142,6 +2189,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2163,7 +2211,7 @@
         <v>226.5818</v>
       </c>
       <c r="G45" t="n">
-        <v>11729.0779</v>
+        <v>528.6666666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2183,6 +2231,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2204,7 +2253,7 @@
         <v>290.1594</v>
       </c>
       <c r="G46" t="n">
-        <v>12019.2373</v>
+        <v>528.6666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2224,6 +2273,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2245,7 +2295,7 @@
         <v>3432.5876</v>
       </c>
       <c r="G47" t="n">
-        <v>15451.8249</v>
+        <v>530</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2265,6 +2315,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2286,7 +2337,7 @@
         <v>260.5563</v>
       </c>
       <c r="G48" t="n">
-        <v>15191.2686</v>
+        <v>531.3333333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2306,6 +2357,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2327,7 +2379,7 @@
         <v>1482.3572</v>
       </c>
       <c r="G49" t="n">
-        <v>13708.9114</v>
+        <v>531.6666666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2347,6 +2399,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2368,7 +2421,7 @@
         <v>502.9225</v>
       </c>
       <c r="G50" t="n">
-        <v>13205.9889</v>
+        <v>530</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2388,6 +2441,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2409,7 +2463,7 @@
         <v>785.4566</v>
       </c>
       <c r="G51" t="n">
-        <v>12420.5323</v>
+        <v>528.3333333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2429,6 +2483,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2450,7 +2505,7 @@
         <v>1137</v>
       </c>
       <c r="G52" t="n">
-        <v>11283.5323</v>
+        <v>526.3333333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2470,6 +2525,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2491,7 +2547,7 @@
         <v>1145</v>
       </c>
       <c r="G53" t="n">
-        <v>10138.5323</v>
+        <v>524.6666666666666</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2513,6 +2569,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2534,7 +2591,7 @@
         <v>1103.0546</v>
       </c>
       <c r="G54" t="n">
-        <v>11241.5869</v>
+        <v>526</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2556,6 +2613,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2577,7 +2635,7 @@
         <v>215.3201</v>
       </c>
       <c r="G55" t="n">
-        <v>11241.5869</v>
+        <v>528.3333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2599,6 +2657,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2620,7 +2679,7 @@
         <v>1099</v>
       </c>
       <c r="G56" t="n">
-        <v>10142.5869</v>
+        <v>530.3333333333334</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2642,6 +2701,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2663,7 +2723,7 @@
         <v>0.7587</v>
       </c>
       <c r="G57" t="n">
-        <v>10142.5869</v>
+        <v>529.6666666666666</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -2685,6 +2745,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2706,7 +2767,7 @@
         <v>288.7</v>
       </c>
       <c r="G58" t="n">
-        <v>10431.2869</v>
+        <v>529.6666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2726,6 +2787,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2747,7 +2809,7 @@
         <v>1238.1541</v>
       </c>
       <c r="G59" t="n">
-        <v>11669.441</v>
+        <v>530.6666666666666</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2769,6 +2831,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2790,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>11673.441</v>
+        <v>532</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2812,6 +2875,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2833,7 +2897,7 @@
         <v>1716.4484</v>
       </c>
       <c r="G61" t="n">
-        <v>11673.441</v>
+        <v>532.6666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2855,6 +2919,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2876,7 +2941,7 @@
         <v>211.6454</v>
       </c>
       <c r="G62" t="n">
-        <v>11673.441</v>
+        <v>533</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2898,6 +2963,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2919,7 +2985,7 @@
         <v>435.2602</v>
       </c>
       <c r="G63" t="n">
-        <v>12108.7012</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2941,6 +3007,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2962,7 +3029,7 @@
         <v>3290.9392</v>
       </c>
       <c r="G64" t="n">
-        <v>15399.6404</v>
+        <v>534</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2984,6 +3051,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3005,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>15400.6404</v>
+        <v>535.3333333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3025,6 +3093,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3046,7 +3115,7 @@
         <v>2453.7968</v>
       </c>
       <c r="G66" t="n">
-        <v>15400.6404</v>
+        <v>536.3333333333334</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -3068,6 +3137,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3089,7 +3159,7 @@
         <v>640.8419</v>
       </c>
       <c r="G67" t="n">
-        <v>16041.4823</v>
+        <v>539</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3109,6 +3179,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3130,7 +3201,7 @@
         <v>1000</v>
       </c>
       <c r="G68" t="n">
-        <v>16041.4823</v>
+        <v>541</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3150,6 +3221,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3171,7 +3243,7 @@
         <v>1842.9414</v>
       </c>
       <c r="G69" t="n">
-        <v>17884.4237</v>
+        <v>543.6666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3191,6 +3263,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3212,7 +3285,7 @@
         <v>301.677</v>
       </c>
       <c r="G70" t="n">
-        <v>17884.4237</v>
+        <v>544.3333333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3232,6 +3305,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3253,7 +3327,7 @@
         <v>268.8711</v>
       </c>
       <c r="G71" t="n">
-        <v>17615.5526</v>
+        <v>544</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3273,6 +3347,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3294,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>17616.5526</v>
+        <v>544</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3314,6 +3389,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3335,7 +3411,7 @@
         <v>3919.6107</v>
       </c>
       <c r="G73" t="n">
-        <v>21536.1633</v>
+        <v>544.3333333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3355,6 +3431,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3376,7 +3453,7 @@
         <v>202.909</v>
       </c>
       <c r="G74" t="n">
-        <v>21739.0723</v>
+        <v>549.3333333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3396,6 +3473,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3417,7 +3495,7 @@
         <v>161.7</v>
       </c>
       <c r="G75" t="n">
-        <v>21577.3723</v>
+        <v>551</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3437,6 +3515,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3458,7 +3537,7 @@
         <v>710.3213</v>
       </c>
       <c r="G76" t="n">
-        <v>21577.3723</v>
+        <v>552.3333333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3478,6 +3557,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3499,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>21578.3723</v>
+        <v>552.3333333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3519,6 +3599,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3540,7 +3621,7 @@
         <v>183.2333</v>
       </c>
       <c r="G78" t="n">
-        <v>21578.3723</v>
+        <v>554.6666666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3560,6 +3641,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3581,7 +3663,7 @@
         <v>35.906</v>
       </c>
       <c r="G79" t="n">
-        <v>21578.3723</v>
+        <v>557</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3601,6 +3683,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3622,7 +3705,7 @@
         <v>90.163</v>
       </c>
       <c r="G80" t="n">
-        <v>21488.2093</v>
+        <v>553.6666666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3642,6 +3725,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3663,7 +3747,7 @@
         <v>115.1147</v>
       </c>
       <c r="G81" t="n">
-        <v>21603.324</v>
+        <v>552.6666666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3683,6 +3767,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3704,7 +3789,7 @@
         <v>2108.9214</v>
       </c>
       <c r="G82" t="n">
-        <v>19494.4026</v>
+        <v>551.3333333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3724,6 +3809,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3745,7 +3831,7 @@
         <v>1822.6095</v>
       </c>
       <c r="G83" t="n">
-        <v>19494.4026</v>
+        <v>553.3333333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3765,6 +3851,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3786,7 +3873,7 @@
         <v>1822.6096</v>
       </c>
       <c r="G84" t="n">
-        <v>17671.793</v>
+        <v>549.3333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3806,6 +3893,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3827,7 +3915,7 @@
         <v>1523.665</v>
       </c>
       <c r="G85" t="n">
-        <v>17671.793</v>
+        <v>545.6666666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3847,6 +3935,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3868,7 +3957,7 @@
         <v>495.7774</v>
       </c>
       <c r="G86" t="n">
-        <v>17671.793</v>
+        <v>542</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3888,6 +3977,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3909,7 +3999,7 @@
         <v>390.8675</v>
       </c>
       <c r="G87" t="n">
-        <v>17280.9255</v>
+        <v>540</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3929,6 +4019,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3950,7 +4041,7 @@
         <v>116.5397</v>
       </c>
       <c r="G88" t="n">
-        <v>17164.3858</v>
+        <v>537.6666666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3970,6 +4061,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3991,7 +4083,7 @@
         <v>87.163</v>
       </c>
       <c r="G89" t="n">
-        <v>17251.5488</v>
+        <v>541</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4011,6 +4103,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4032,7 +4125,7 @@
         <v>1229.9281</v>
       </c>
       <c r="G90" t="n">
-        <v>18481.4769</v>
+        <v>547</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4052,6 +4145,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4073,7 +4167,7 @@
         <v>50</v>
       </c>
       <c r="G91" t="n">
-        <v>18431.4769</v>
+        <v>549.6666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4093,6 +4187,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4114,7 +4209,7 @@
         <v>1606.761</v>
       </c>
       <c r="G92" t="n">
-        <v>20038.2379</v>
+        <v>550.3333333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4134,6 +4229,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4155,7 +4251,7 @@
         <v>193.239</v>
       </c>
       <c r="G93" t="n">
-        <v>20038.2379</v>
+        <v>550.3333333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4175,6 +4271,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4196,7 +4293,7 @@
         <v>140.8</v>
       </c>
       <c r="G94" t="n">
-        <v>20179.0379</v>
+        <v>554.6666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4216,6 +4313,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4237,7 +4335,7 @@
         <v>140.448</v>
       </c>
       <c r="G95" t="n">
-        <v>20038.5899</v>
+        <v>551.3333333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4257,6 +4355,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4278,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>20038.5899</v>
+        <v>548</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4298,6 +4397,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4319,7 +4419,7 @@
         <v>3957.175835489511</v>
       </c>
       <c r="G97" t="n">
-        <v>23995.76573548951</v>
+        <v>553</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4339,6 +4439,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4360,13 +4461,13 @@
         <v>90.07299999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>23905.69273548951</v>
+        <v>553.6666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
@@ -4374,10 +4475,13 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M98" t="n">
+        <v>1.029090909090909</v>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4401,7 +4505,7 @@
         <v>185.531</v>
       </c>
       <c r="G99" t="n">
-        <v>23905.69273548951</v>
+        <v>554.3333333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4410,17 +4514,12 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>528</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4442,7 +4541,7 @@
         <v>700.8794</v>
       </c>
       <c r="G100" t="n">
-        <v>24606.57213548951</v>
+        <v>546.3333333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4451,17 +4550,12 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>528</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4483,7 +4577,7 @@
         <v>365.6307</v>
       </c>
       <c r="G101" t="n">
-        <v>24606.57213548951</v>
+        <v>546.6666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4492,17 +4586,12 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>528</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4524,7 +4613,7 @@
         <v>269.4</v>
       </c>
       <c r="G102" t="n">
-        <v>24606.57213548951</v>
+        <v>547</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4533,17 +4622,12 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>528</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4565,7 +4649,7 @@
         <v>727.8261</v>
       </c>
       <c r="G103" t="n">
-        <v>23878.74603548951</v>
+        <v>544.3333333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4574,17 +4658,12 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>528</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4606,7 +4685,7 @@
         <v>211.1163</v>
       </c>
       <c r="G104" t="n">
-        <v>24089.86233548951</v>
+        <v>542</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4615,17 +4694,12 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>528</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4647,7 +4721,7 @@
         <v>22.8879</v>
       </c>
       <c r="G105" t="n">
-        <v>24112.75023548951</v>
+        <v>547</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4656,17 +4730,12 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>528</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4688,7 +4757,7 @@
         <v>67.18600000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>24045.56423548951</v>
+        <v>554</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4697,17 +4766,12 @@
         <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>528</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>1.055606060606061</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4729,7 +4793,7 @@
         <v>73.37050000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>24118.93473548951</v>
+        <v>561</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4743,6 +4807,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-28 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C2" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D2" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E2" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F2" t="n">
-        <v>481.2839</v>
+        <v>416.075</v>
       </c>
       <c r="G2" t="n">
-        <v>525.3333333333334</v>
+        <v>12026.7989</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C3" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D3" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E3" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F3" t="n">
-        <v>1238.3278</v>
+        <v>368.7</v>
       </c>
       <c r="G3" t="n">
-        <v>528</v>
+        <v>12026.7989</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C4" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D4" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F4" t="n">
-        <v>560.0511</v>
+        <v>351.5834</v>
       </c>
       <c r="G4" t="n">
-        <v>528</v>
+        <v>12378.3823</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C5" t="n">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D5" t="n">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F5" t="n">
-        <v>765.9023</v>
+        <v>370.0878</v>
       </c>
       <c r="G5" t="n">
-        <v>528</v>
+        <v>12748.4701</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C6" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D6" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E6" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F6" t="n">
-        <v>4011.0758</v>
+        <v>183.5299</v>
       </c>
       <c r="G6" t="n">
-        <v>528</v>
+        <v>12564.9402</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C7" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D7" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E7" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F7" t="n">
-        <v>530.3977</v>
+        <v>481.235</v>
       </c>
       <c r="G7" t="n">
-        <v>528</v>
+        <v>12083.7052</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C8" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D8" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E8" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F8" t="n">
-        <v>36.6231</v>
+        <v>629.7291</v>
       </c>
       <c r="G8" t="n">
-        <v>528</v>
+        <v>11453.9761</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C9" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D9" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E9" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F9" t="n">
-        <v>112</v>
+        <v>739.0507</v>
       </c>
       <c r="G9" t="n">
-        <v>528</v>
+        <v>12193.0268</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C10" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D10" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E10" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F10" t="n">
-        <v>716.7285000000001</v>
+        <v>124.6788</v>
       </c>
       <c r="G10" t="n">
-        <v>528</v>
+        <v>12193.0268</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C11" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D11" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E11" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F11" t="n">
-        <v>226.1767</v>
+        <v>200</v>
       </c>
       <c r="G11" t="n">
-        <v>528</v>
+        <v>12193.0268</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C12" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D12" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E12" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F12" t="n">
-        <v>1217.4458</v>
+        <v>118.5015</v>
       </c>
       <c r="G12" t="n">
-        <v>528</v>
+        <v>12193.0268</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C13" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D13" t="n">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E13" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F13" t="n">
-        <v>1279.1962</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>528</v>
+        <v>12195.0268</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,35 +870,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C14" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D14" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E14" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>28.4384</v>
       </c>
       <c r="G14" t="n">
-        <v>528</v>
+        <v>12195.0268</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>528</v>
-      </c>
-      <c r="K14" t="n">
-        <v>528</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -910,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C15" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D15" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E15" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F15" t="n">
-        <v>1917.4331</v>
+        <v>1062.2003</v>
       </c>
       <c r="G15" t="n">
-        <v>528</v>
+        <v>12195.0268</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -934,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>528</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -952,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C16" t="n">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="D16" t="n">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="E16" t="n">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="F16" t="n">
-        <v>254.1877</v>
+        <v>339.9624</v>
       </c>
       <c r="G16" t="n">
-        <v>525.3333333333334</v>
+        <v>12195.0268</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -976,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>528</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -994,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="C17" t="n">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D17" t="n">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E17" t="n">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="F17" t="n">
-        <v>2927.214</v>
+        <v>265.1517</v>
       </c>
       <c r="G17" t="n">
-        <v>525</v>
+        <v>12195.0268</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1018,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>528</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1036,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="C18" t="n">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="D18" t="n">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="E18" t="n">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="F18" t="n">
-        <v>1930.2413</v>
+        <v>518.4379</v>
       </c>
       <c r="G18" t="n">
-        <v>521.6666666666666</v>
+        <v>12713.4647</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1060,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>528</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1078,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="C19" t="n">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="D19" t="n">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="E19" t="n">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="F19" t="n">
-        <v>352</v>
+        <v>534.4004</v>
       </c>
       <c r="G19" t="n">
-        <v>521.3333333333334</v>
+        <v>13247.8651</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1102,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>528</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1120,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="C20" t="n">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="D20" t="n">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="E20" t="n">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="F20" t="n">
-        <v>5.5567</v>
+        <v>201.8484</v>
       </c>
       <c r="G20" t="n">
-        <v>521</v>
+        <v>13247.8651</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1144,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>528</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1162,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C21" t="n">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="D21" t="n">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E21" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>1845.7855</v>
       </c>
       <c r="G21" t="n">
-        <v>525</v>
+        <v>15093.6506</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1186,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>528</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1204,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="C22" t="n">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="D22" t="n">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="E22" t="n">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F22" t="n">
-        <v>1003.279</v>
+        <v>791.8009</v>
       </c>
       <c r="G22" t="n">
-        <v>528.6666666666666</v>
+        <v>15885.4515</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1228,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>528</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1246,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C23" t="n">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D23" t="n">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="E23" t="n">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F23" t="n">
-        <v>702.5538</v>
+        <v>2829.1089</v>
       </c>
       <c r="G23" t="n">
-        <v>529.6666666666666</v>
+        <v>13056.3426</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1270,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>528</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1288,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C24" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D24" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E24" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F24" t="n">
-        <v>488.8607</v>
+        <v>1534.6035</v>
       </c>
       <c r="G24" t="n">
-        <v>529.3333333333334</v>
+        <v>11521.7391</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1312,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>528</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1330,40 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C25" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D25" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E25" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F25" t="n">
-        <v>50.5646</v>
+        <v>118.7703</v>
       </c>
       <c r="G25" t="n">
-        <v>529</v>
+        <v>11402.9688</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>529</v>
-      </c>
-      <c r="K25" t="n">
-        <v>528</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1374,40 +1302,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C26" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D26" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E26" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F26" t="n">
-        <v>192.4</v>
+        <v>374.3845</v>
       </c>
       <c r="G26" t="n">
-        <v>528.6666666666666</v>
+        <v>11402.9688</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>529</v>
-      </c>
-      <c r="K26" t="n">
-        <v>528</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1418,40 +1338,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C27" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D27" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E27" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F27" t="n">
-        <v>511.4279</v>
+        <v>5.761</v>
       </c>
       <c r="G27" t="n">
-        <v>528.3333333333334</v>
+        <v>11408.7298</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>528</v>
-      </c>
-      <c r="K27" t="n">
-        <v>528</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1462,40 +1374,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C28" t="n">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D28" t="n">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E28" t="n">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F28" t="n">
-        <v>3.5471</v>
+        <v>1659.4972</v>
       </c>
       <c r="G28" t="n">
-        <v>528</v>
+        <v>9749.232599999998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>528</v>
-      </c>
-      <c r="K28" t="n">
-        <v>528</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1506,40 +1410,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C29" t="n">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D29" t="n">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E29" t="n">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F29" t="n">
-        <v>96.3</v>
+        <v>770.1077</v>
       </c>
       <c r="G29" t="n">
-        <v>528</v>
+        <v>9749.232599999998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>528</v>
-      </c>
-      <c r="K29" t="n">
-        <v>528</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1562,28 +1458,20 @@
         <v>528</v>
       </c>
       <c r="F30" t="n">
-        <v>93.7623</v>
+        <v>68.2757</v>
       </c>
       <c r="G30" t="n">
-        <v>528</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>528</v>
-      </c>
-      <c r="K30" t="n">
-        <v>528</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1594,40 +1482,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C31" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D31" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E31" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F31" t="n">
-        <v>645.3735</v>
+        <v>481.2839</v>
       </c>
       <c r="G31" t="n">
-        <v>528.3333333333334</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>528</v>
-      </c>
-      <c r="K31" t="n">
-        <v>528</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1638,40 +1518,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C32" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D32" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E32" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F32" t="n">
-        <v>1157.8207</v>
+        <v>1238.3278</v>
       </c>
       <c r="G32" t="n">
-        <v>529</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>529</v>
-      </c>
-      <c r="K32" t="n">
-        <v>528</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1682,40 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C33" t="n">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D33" t="n">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="E33" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F33" t="n">
-        <v>1741.6254</v>
+        <v>560.0511</v>
       </c>
       <c r="G33" t="n">
-        <v>531</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>530</v>
-      </c>
-      <c r="K33" t="n">
-        <v>528</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1726,40 +1590,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C34" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D34" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E34" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F34" t="n">
-        <v>1923.412</v>
+        <v>765.9023</v>
       </c>
       <c r="G34" t="n">
-        <v>532.3333333333334</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>534</v>
-      </c>
-      <c r="K34" t="n">
-        <v>528</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1770,40 +1626,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C35" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D35" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E35" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F35" t="n">
-        <v>1660.581</v>
+        <v>4011.0758</v>
       </c>
       <c r="G35" t="n">
-        <v>533.3333333333334</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>533</v>
-      </c>
-      <c r="K35" t="n">
-        <v>528</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1814,40 +1662,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C36" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D36" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E36" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F36" t="n">
-        <v>367.3334</v>
+        <v>530.3977</v>
       </c>
       <c r="G36" t="n">
-        <v>533</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>533</v>
-      </c>
-      <c r="K36" t="n">
-        <v>528</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1858,40 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C37" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D37" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E37" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F37" t="n">
-        <v>2155.7298</v>
+        <v>36.6231</v>
       </c>
       <c r="G37" t="n">
-        <v>533</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>533</v>
-      </c>
-      <c r="K37" t="n">
-        <v>528</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1902,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C38" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D38" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E38" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F38" t="n">
-        <v>1149.8217</v>
+        <v>112</v>
       </c>
       <c r="G38" t="n">
-        <v>533</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1926,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>528</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1944,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C39" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D39" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E39" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F39" t="n">
-        <v>158.4409</v>
+        <v>716.7285000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>533</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1968,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>528</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C40" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D40" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E40" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F40" t="n">
-        <v>1579.5558</v>
+        <v>226.1767</v>
       </c>
       <c r="G40" t="n">
-        <v>533</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2010,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>528</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2031,19 +1845,19 @@
         <v>528</v>
       </c>
       <c r="C41" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D41" t="n">
         <v>528</v>
       </c>
       <c r="E41" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F41" t="n">
-        <v>158.4409</v>
+        <v>1217.4458</v>
       </c>
       <c r="G41" t="n">
-        <v>531</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2052,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>528</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2070,38 +1878,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C42" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D42" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E42" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F42" t="n">
-        <v>878.4867</v>
+        <v>1279.1962</v>
       </c>
       <c r="G42" t="n">
-        <v>530.3333333333334</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>528</v>
+      </c>
       <c r="K42" t="n">
         <v>528</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2112,36 +1918,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C43" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D43" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E43" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F43" t="n">
-        <v>436.6899</v>
+        <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>529</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>528</v>
+      </c>
       <c r="K43" t="n">
         <v>528</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -2154,36 +1962,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C44" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D44" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E44" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F44" t="n">
-        <v>292.2646</v>
+        <v>1917.4331</v>
       </c>
       <c r="G44" t="n">
-        <v>529.6666666666666</v>
+        <v>9817.508299999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>528</v>
+      </c>
       <c r="K44" t="n">
         <v>528</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2196,36 +2006,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C45" t="n">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D45" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E45" t="n">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F45" t="n">
-        <v>226.5818</v>
+        <v>254.1877</v>
       </c>
       <c r="G45" t="n">
-        <v>528.6666666666666</v>
+        <v>9563.320599999997</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>528</v>
+      </c>
       <c r="K45" t="n">
         <v>528</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -2238,30 +2050,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C46" t="n">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D46" t="n">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E46" t="n">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F46" t="n">
-        <v>290.1594</v>
+        <v>2927.214</v>
       </c>
       <c r="G46" t="n">
-        <v>528.6666666666666</v>
+        <v>12490.5346</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>520</v>
+      </c>
       <c r="K46" t="n">
         <v>528</v>
       </c>
@@ -2280,22 +2094,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C47" t="n">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="D47" t="n">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E47" t="n">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F47" t="n">
-        <v>3432.5876</v>
+        <v>1930.2413</v>
       </c>
       <c r="G47" t="n">
-        <v>530</v>
+        <v>10560.2933</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2322,30 +2136,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C48" t="n">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="D48" t="n">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E48" t="n">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="F48" t="n">
-        <v>260.5563</v>
+        <v>352</v>
       </c>
       <c r="G48" t="n">
-        <v>531.3333333333334</v>
+        <v>10912.2933</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>518</v>
+      </c>
       <c r="K48" t="n">
         <v>528</v>
       </c>
@@ -2364,30 +2180,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C49" t="n">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D49" t="n">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E49" t="n">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F49" t="n">
-        <v>1482.3572</v>
+        <v>5.5567</v>
       </c>
       <c r="G49" t="n">
-        <v>531.6666666666666</v>
+        <v>10917.85</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>519</v>
+      </c>
       <c r="K49" t="n">
         <v>528</v>
       </c>
@@ -2406,22 +2224,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C50" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D50" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E50" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F50" t="n">
-        <v>502.9225</v>
+        <v>28</v>
       </c>
       <c r="G50" t="n">
-        <v>530</v>
+        <v>10945.85</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2448,22 +2266,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C51" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D51" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E51" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F51" t="n">
-        <v>785.4566</v>
+        <v>1003.279</v>
       </c>
       <c r="G51" t="n">
-        <v>528.3333333333334</v>
+        <v>10945.85</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2490,22 +2308,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C52" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D52" t="n">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E52" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F52" t="n">
-        <v>1137</v>
+        <v>702.5538</v>
       </c>
       <c r="G52" t="n">
-        <v>526.3333333333334</v>
+        <v>10243.2962</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2532,32 +2350,30 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C53" t="n">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D53" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="E53" t="n">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F53" t="n">
-        <v>1145</v>
+        <v>488.8607</v>
       </c>
       <c r="G53" t="n">
-        <v>524.6666666666666</v>
+        <v>10243.2962</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>524</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>528</v>
       </c>
@@ -2576,22 +2392,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C54" t="n">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D54" t="n">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E54" t="n">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F54" t="n">
-        <v>1103.0546</v>
+        <v>50.5646</v>
       </c>
       <c r="G54" t="n">
-        <v>526</v>
+        <v>10243.2962</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2600,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="K54" t="n">
         <v>528</v>
@@ -2620,32 +2436,30 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C55" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D55" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E55" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F55" t="n">
-        <v>215.3201</v>
+        <v>192.4</v>
       </c>
       <c r="G55" t="n">
-        <v>528.3333333333334</v>
+        <v>10050.8962</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>531</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>528</v>
       </c>
@@ -2664,32 +2478,30 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C56" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D56" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E56" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F56" t="n">
-        <v>1099</v>
+        <v>511.4279</v>
       </c>
       <c r="G56" t="n">
-        <v>530.3333333333334</v>
+        <v>10050.8962</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>531</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>528</v>
       </c>
@@ -2708,32 +2520,30 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C57" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D57" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E57" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7587</v>
+        <v>3.5471</v>
       </c>
       <c r="G57" t="n">
-        <v>529.6666666666666</v>
+        <v>10050.8962</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>529</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>528</v>
       </c>
@@ -2752,30 +2562,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C58" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D58" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E58" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F58" t="n">
-        <v>288.7</v>
+        <v>96.3</v>
       </c>
       <c r="G58" t="n">
-        <v>529.6666666666666</v>
+        <v>10050.8962</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>528</v>
+      </c>
       <c r="K58" t="n">
         <v>528</v>
       </c>
@@ -2794,22 +2606,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C59" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D59" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E59" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F59" t="n">
-        <v>1238.1541</v>
+        <v>93.7623</v>
       </c>
       <c r="G59" t="n">
-        <v>530.6666666666666</v>
+        <v>10050.8962</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2818,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K59" t="n">
         <v>528</v>
@@ -2838,22 +2650,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C60" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D60" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E60" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>645.3735</v>
       </c>
       <c r="G60" t="n">
-        <v>532</v>
+        <v>10696.2697</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2862,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K60" t="n">
         <v>528</v>
@@ -2882,22 +2694,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C61" t="n">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D61" t="n">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E61" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F61" t="n">
-        <v>1716.4484</v>
+        <v>1157.8207</v>
       </c>
       <c r="G61" t="n">
-        <v>532.6666666666666</v>
+        <v>11854.0904</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2906,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K61" t="n">
         <v>528</v>
@@ -2926,32 +2738,30 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C62" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D62" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E62" t="n">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F62" t="n">
-        <v>211.6454</v>
+        <v>1741.6254</v>
       </c>
       <c r="G62" t="n">
-        <v>533</v>
+        <v>13595.7158</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>533</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>528</v>
       </c>
@@ -2973,29 +2783,27 @@
         <v>533</v>
       </c>
       <c r="C63" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D63" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E63" t="n">
         <v>533</v>
       </c>
       <c r="F63" t="n">
-        <v>435.2602</v>
+        <v>1923.412</v>
       </c>
       <c r="G63" t="n">
-        <v>533.3333333333334</v>
+        <v>11672.3038</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>533</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>528</v>
       </c>
@@ -3014,32 +2822,30 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C64" t="n">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D64" t="n">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E64" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F64" t="n">
-        <v>3290.9392</v>
+        <v>1660.581</v>
       </c>
       <c r="G64" t="n">
-        <v>534</v>
+        <v>11672.3038</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>534</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>528</v>
       </c>
@@ -3058,22 +2864,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C65" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D65" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E65" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>367.3334</v>
       </c>
       <c r="G65" t="n">
-        <v>535.3333333333334</v>
+        <v>11672.3038</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3100,32 +2906,30 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C66" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D66" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E66" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F66" t="n">
-        <v>2453.7968</v>
+        <v>2155.7298</v>
       </c>
       <c r="G66" t="n">
-        <v>536.3333333333334</v>
+        <v>11672.3038</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>537</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>528</v>
       </c>
@@ -3144,22 +2948,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C67" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D67" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E67" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F67" t="n">
-        <v>640.8419</v>
+        <v>1149.8217</v>
       </c>
       <c r="G67" t="n">
-        <v>539</v>
+        <v>11672.3038</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3186,22 +2990,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C68" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D68" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E68" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F68" t="n">
-        <v>1000</v>
+        <v>158.4409</v>
       </c>
       <c r="G68" t="n">
-        <v>541</v>
+        <v>11672.3038</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3228,22 +3032,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C69" t="n">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D69" t="n">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E69" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F69" t="n">
-        <v>1842.9414</v>
+        <v>1579.5558</v>
       </c>
       <c r="G69" t="n">
-        <v>543.6666666666666</v>
+        <v>11672.3038</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3270,22 +3074,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="C70" t="n">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="D70" t="n">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="E70" t="n">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F70" t="n">
-        <v>301.677</v>
+        <v>158.4409</v>
       </c>
       <c r="G70" t="n">
-        <v>544.3333333333334</v>
+        <v>11513.8629</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3312,22 +3116,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C71" t="n">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D71" t="n">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F71" t="n">
-        <v>268.8711</v>
+        <v>878.4867</v>
       </c>
       <c r="G71" t="n">
-        <v>544</v>
+        <v>12392.3496</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3354,22 +3158,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C72" t="n">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="D72" t="n">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="E72" t="n">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>436.6899</v>
       </c>
       <c r="G72" t="n">
-        <v>544</v>
+        <v>11955.6597</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3396,22 +3200,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C73" t="n">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="D73" t="n">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E73" t="n">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="F73" t="n">
-        <v>3919.6107</v>
+        <v>292.2646</v>
       </c>
       <c r="G73" t="n">
-        <v>544.3333333333334</v>
+        <v>11955.6597</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3438,22 +3242,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="C74" t="n">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="D74" t="n">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="E74" t="n">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="F74" t="n">
-        <v>202.909</v>
+        <v>226.5818</v>
       </c>
       <c r="G74" t="n">
-        <v>549.3333333333334</v>
+        <v>11729.0779</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3480,22 +3284,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="C75" t="n">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="D75" t="n">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="E75" t="n">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="F75" t="n">
-        <v>161.7</v>
+        <v>290.1594</v>
       </c>
       <c r="G75" t="n">
-        <v>551</v>
+        <v>12019.2373</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3522,22 +3326,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="C76" t="n">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="D76" t="n">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="E76" t="n">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="F76" t="n">
-        <v>710.3213</v>
+        <v>3432.5876</v>
       </c>
       <c r="G76" t="n">
-        <v>552.3333333333334</v>
+        <v>15451.8249</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3564,22 +3368,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="C77" t="n">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="D77" t="n">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="E77" t="n">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>260.5563</v>
       </c>
       <c r="G77" t="n">
-        <v>552.3333333333334</v>
+        <v>15191.2686</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3606,22 +3410,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="C78" t="n">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="D78" t="n">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="E78" t="n">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="F78" t="n">
-        <v>183.2333</v>
+        <v>1482.3572</v>
       </c>
       <c r="G78" t="n">
-        <v>554.6666666666666</v>
+        <v>13708.9114</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3648,22 +3452,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="C79" t="n">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="D79" t="n">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="E79" t="n">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="F79" t="n">
-        <v>35.906</v>
+        <v>502.9225</v>
       </c>
       <c r="G79" t="n">
-        <v>557</v>
+        <v>13205.9889</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3690,22 +3494,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="C80" t="n">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="D80" t="n">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="E80" t="n">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="F80" t="n">
-        <v>90.163</v>
+        <v>785.4566</v>
       </c>
       <c r="G80" t="n">
-        <v>553.6666666666666</v>
+        <v>12420.5323</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3732,30 +3536,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="C81" t="n">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="D81" t="n">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="E81" t="n">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="F81" t="n">
-        <v>115.1147</v>
+        <v>1137</v>
       </c>
       <c r="G81" t="n">
-        <v>552.6666666666666</v>
+        <v>11283.5323</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>527</v>
+      </c>
       <c r="K81" t="n">
         <v>528</v>
       </c>
@@ -3774,30 +3580,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="C82" t="n">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="D82" t="n">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="E82" t="n">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="F82" t="n">
-        <v>2108.9214</v>
+        <v>1145</v>
       </c>
       <c r="G82" t="n">
-        <v>551.3333333333334</v>
+        <v>10138.5323</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>524</v>
+      </c>
       <c r="K82" t="n">
         <v>528</v>
       </c>
@@ -3816,30 +3624,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C83" t="n">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="D83" t="n">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="E83" t="n">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F83" t="n">
-        <v>1822.6095</v>
+        <v>1103.0546</v>
       </c>
       <c r="G83" t="n">
-        <v>553.3333333333334</v>
+        <v>11241.5869</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>523</v>
+      </c>
       <c r="K83" t="n">
         <v>528</v>
       </c>
@@ -3858,30 +3668,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C84" t="n">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D84" t="n">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="E84" t="n">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F84" t="n">
-        <v>1822.6096</v>
+        <v>215.3201</v>
       </c>
       <c r="G84" t="n">
-        <v>549.3333333333334</v>
+        <v>11241.5869</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>531</v>
+      </c>
       <c r="K84" t="n">
         <v>528</v>
       </c>
@@ -3900,30 +3712,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C85" t="n">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="D85" t="n">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E85" t="n">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="F85" t="n">
-        <v>1523.665</v>
+        <v>1099</v>
       </c>
       <c r="G85" t="n">
-        <v>545.6666666666666</v>
+        <v>10142.5869</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>531</v>
+      </c>
       <c r="K85" t="n">
         <v>528</v>
       </c>
@@ -3942,30 +3756,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C86" t="n">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="D86" t="n">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E86" t="n">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="F86" t="n">
-        <v>495.7774</v>
+        <v>0.7587</v>
       </c>
       <c r="G86" t="n">
-        <v>542</v>
+        <v>10142.5869</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>529</v>
+      </c>
       <c r="K86" t="n">
         <v>528</v>
       </c>
@@ -3984,30 +3800,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C87" t="n">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D87" t="n">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E87" t="n">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F87" t="n">
-        <v>390.8675</v>
+        <v>288.7</v>
       </c>
       <c r="G87" t="n">
-        <v>540</v>
+        <v>10431.2869</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>529</v>
+      </c>
       <c r="K87" t="n">
         <v>528</v>
       </c>
@@ -4026,30 +3844,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C88" t="n">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D88" t="n">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E88" t="n">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F88" t="n">
-        <v>116.5397</v>
+        <v>1238.1541</v>
       </c>
       <c r="G88" t="n">
-        <v>537.6666666666666</v>
+        <v>11669.441</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>531</v>
+      </c>
       <c r="K88" t="n">
         <v>528</v>
       </c>
@@ -4068,30 +3888,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="C89" t="n">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="D89" t="n">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="E89" t="n">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="F89" t="n">
-        <v>87.163</v>
+        <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>541</v>
+        <v>11673.441</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>532</v>
+      </c>
       <c r="K89" t="n">
         <v>528</v>
       </c>
@@ -4110,22 +3932,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="C90" t="n">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="D90" t="n">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="E90" t="n">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="F90" t="n">
-        <v>1229.9281</v>
+        <v>1716.4484</v>
       </c>
       <c r="G90" t="n">
-        <v>547</v>
+        <v>11673.441</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4152,22 +3974,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C91" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D91" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E91" t="n">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F91" t="n">
-        <v>50</v>
+        <v>211.6454</v>
       </c>
       <c r="G91" t="n">
-        <v>549.6666666666666</v>
+        <v>11673.441</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4194,22 +4016,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="C92" t="n">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="D92" t="n">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="F92" t="n">
-        <v>1606.761</v>
+        <v>435.2602</v>
       </c>
       <c r="G92" t="n">
-        <v>550.3333333333334</v>
+        <v>12108.7012</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4236,22 +4058,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="C93" t="n">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="D93" t="n">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="E93" t="n">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="F93" t="n">
-        <v>193.239</v>
+        <v>3290.9392</v>
       </c>
       <c r="G93" t="n">
-        <v>550.3333333333334</v>
+        <v>15399.6404</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4278,22 +4100,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="C94" t="n">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="D94" t="n">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="E94" t="n">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="F94" t="n">
-        <v>140.8</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>554.6666666666666</v>
+        <v>15400.6404</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4320,22 +4142,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="C95" t="n">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D95" t="n">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="E95" t="n">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F95" t="n">
-        <v>140.448</v>
+        <v>2453.7968</v>
       </c>
       <c r="G95" t="n">
-        <v>551.3333333333334</v>
+        <v>15400.6404</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4362,22 +4184,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C96" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D96" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E96" t="n">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>640.8419</v>
       </c>
       <c r="G96" t="n">
-        <v>548</v>
+        <v>16041.4823</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4404,22 +4226,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C97" t="n">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="D97" t="n">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="E97" t="n">
         <v>543</v>
       </c>
       <c r="F97" t="n">
-        <v>3957.175835489511</v>
+        <v>1000</v>
       </c>
       <c r="G97" t="n">
-        <v>553</v>
+        <v>16041.4823</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4446,22 +4268,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C98" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D98" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E98" t="n">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F98" t="n">
-        <v>90.07299999999999</v>
+        <v>1842.9414</v>
       </c>
       <c r="G98" t="n">
-        <v>553.6666666666666</v>
+        <v>17884.4237</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4479,33 +4301,31 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1.029090909090909</v>
-      </c>
-      <c r="N98" t="n">
-        <v>1</v>
-      </c>
+        <v>1.02719696969697</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C99" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D99" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E99" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F99" t="n">
-        <v>185.531</v>
+        <v>301.677</v>
       </c>
       <c r="G99" t="n">
-        <v>554.3333333333334</v>
+        <v>17884.4237</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4526,28 +4346,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C100" t="n">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D100" t="n">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E100" t="n">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F100" t="n">
-        <v>700.8794</v>
+        <v>268.8711</v>
       </c>
       <c r="G100" t="n">
-        <v>546.3333333333334</v>
+        <v>17615.5526</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4562,28 +4382,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C101" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D101" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E101" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F101" t="n">
-        <v>365.6307</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>546.6666666666666</v>
+        <v>17616.5526</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4598,22 +4418,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C102" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D102" t="n">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E102" t="n">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F102" t="n">
-        <v>269.4</v>
+        <v>3919.6107</v>
       </c>
       <c r="G102" t="n">
-        <v>547</v>
+        <v>21536.1633</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4634,28 +4454,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C103" t="n">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="D103" t="n">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="E103" t="n">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="F103" t="n">
-        <v>727.8261</v>
+        <v>202.909</v>
       </c>
       <c r="G103" t="n">
-        <v>544.3333333333334</v>
+        <v>21739.0723</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4670,28 +4490,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C104" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D104" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="E104" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F104" t="n">
-        <v>211.1163</v>
+        <v>161.7</v>
       </c>
       <c r="G104" t="n">
-        <v>542</v>
+        <v>21577.3723</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4706,28 +4526,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C105" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D105" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E105" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="F105" t="n">
-        <v>22.8879</v>
+        <v>710.3213</v>
       </c>
       <c r="G105" t="n">
-        <v>547</v>
+        <v>21577.3723</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4742,22 +4562,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C106" t="n">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D106" t="n">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E106" t="n">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F106" t="n">
-        <v>67.18600000000001</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>554</v>
+        <v>21578.3723</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4778,22 +4598,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C107" t="n">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D107" t="n">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E107" t="n">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F107" t="n">
-        <v>73.37050000000001</v>
+        <v>183.2333</v>
       </c>
       <c r="G107" t="n">
-        <v>561</v>
+        <v>21578.3723</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4809,6 +4629,1050 @@
       </c>
       <c r="N107" t="inlineStr"/>
     </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>557</v>
+      </c>
+      <c r="C108" t="n">
+        <v>557</v>
+      </c>
+      <c r="D108" t="n">
+        <v>557</v>
+      </c>
+      <c r="E108" t="n">
+        <v>557</v>
+      </c>
+      <c r="F108" t="n">
+        <v>35.906</v>
+      </c>
+      <c r="G108" t="n">
+        <v>21578.3723</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>547</v>
+      </c>
+      <c r="C109" t="n">
+        <v>547</v>
+      </c>
+      <c r="D109" t="n">
+        <v>547</v>
+      </c>
+      <c r="E109" t="n">
+        <v>547</v>
+      </c>
+      <c r="F109" t="n">
+        <v>90.163</v>
+      </c>
+      <c r="G109" t="n">
+        <v>21488.2093</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>546</v>
+      </c>
+      <c r="C110" t="n">
+        <v>554</v>
+      </c>
+      <c r="D110" t="n">
+        <v>554</v>
+      </c>
+      <c r="E110" t="n">
+        <v>545</v>
+      </c>
+      <c r="F110" t="n">
+        <v>115.1147</v>
+      </c>
+      <c r="G110" t="n">
+        <v>21603.324</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>546</v>
+      </c>
+      <c r="C111" t="n">
+        <v>553</v>
+      </c>
+      <c r="D111" t="n">
+        <v>553</v>
+      </c>
+      <c r="E111" t="n">
+        <v>543</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2108.9214</v>
+      </c>
+      <c r="G111" t="n">
+        <v>19494.4026</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>545</v>
+      </c>
+      <c r="C112" t="n">
+        <v>553</v>
+      </c>
+      <c r="D112" t="n">
+        <v>553</v>
+      </c>
+      <c r="E112" t="n">
+        <v>542</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1822.6095</v>
+      </c>
+      <c r="G112" t="n">
+        <v>19494.4026</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>542</v>
+      </c>
+      <c r="C113" t="n">
+        <v>542</v>
+      </c>
+      <c r="D113" t="n">
+        <v>542</v>
+      </c>
+      <c r="E113" t="n">
+        <v>542</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1822.6096</v>
+      </c>
+      <c r="G113" t="n">
+        <v>17671.793</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>542</v>
+      </c>
+      <c r="C114" t="n">
+        <v>542</v>
+      </c>
+      <c r="D114" t="n">
+        <v>542</v>
+      </c>
+      <c r="E114" t="n">
+        <v>542</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1523.665</v>
+      </c>
+      <c r="G114" t="n">
+        <v>17671.793</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>542</v>
+      </c>
+      <c r="C115" t="n">
+        <v>542</v>
+      </c>
+      <c r="D115" t="n">
+        <v>542</v>
+      </c>
+      <c r="E115" t="n">
+        <v>542</v>
+      </c>
+      <c r="F115" t="n">
+        <v>495.7774</v>
+      </c>
+      <c r="G115" t="n">
+        <v>17671.793</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>536</v>
+      </c>
+      <c r="C116" t="n">
+        <v>536</v>
+      </c>
+      <c r="D116" t="n">
+        <v>536</v>
+      </c>
+      <c r="E116" t="n">
+        <v>536</v>
+      </c>
+      <c r="F116" t="n">
+        <v>390.8675</v>
+      </c>
+      <c r="G116" t="n">
+        <v>17280.9255</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>535</v>
+      </c>
+      <c r="C117" t="n">
+        <v>535</v>
+      </c>
+      <c r="D117" t="n">
+        <v>535</v>
+      </c>
+      <c r="E117" t="n">
+        <v>535</v>
+      </c>
+      <c r="F117" t="n">
+        <v>116.5397</v>
+      </c>
+      <c r="G117" t="n">
+        <v>17164.3858</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>552</v>
+      </c>
+      <c r="C118" t="n">
+        <v>552</v>
+      </c>
+      <c r="D118" t="n">
+        <v>552</v>
+      </c>
+      <c r="E118" t="n">
+        <v>552</v>
+      </c>
+      <c r="F118" t="n">
+        <v>87.163</v>
+      </c>
+      <c r="G118" t="n">
+        <v>17251.5488</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>553</v>
+      </c>
+      <c r="C119" t="n">
+        <v>554</v>
+      </c>
+      <c r="D119" t="n">
+        <v>554</v>
+      </c>
+      <c r="E119" t="n">
+        <v>553</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1229.9281</v>
+      </c>
+      <c r="G119" t="n">
+        <v>18481.4769</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>543</v>
+      </c>
+      <c r="C120" t="n">
+        <v>543</v>
+      </c>
+      <c r="D120" t="n">
+        <v>543</v>
+      </c>
+      <c r="E120" t="n">
+        <v>543</v>
+      </c>
+      <c r="F120" t="n">
+        <v>50</v>
+      </c>
+      <c r="G120" t="n">
+        <v>18431.4769</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>552</v>
+      </c>
+      <c r="C121" t="n">
+        <v>554</v>
+      </c>
+      <c r="D121" t="n">
+        <v>554</v>
+      </c>
+      <c r="E121" t="n">
+        <v>552</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1606.761</v>
+      </c>
+      <c r="G121" t="n">
+        <v>20038.2379</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>554</v>
+      </c>
+      <c r="C122" t="n">
+        <v>554</v>
+      </c>
+      <c r="D122" t="n">
+        <v>554</v>
+      </c>
+      <c r="E122" t="n">
+        <v>554</v>
+      </c>
+      <c r="F122" t="n">
+        <v>193.239</v>
+      </c>
+      <c r="G122" t="n">
+        <v>20038.2379</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>556</v>
+      </c>
+      <c r="C123" t="n">
+        <v>556</v>
+      </c>
+      <c r="D123" t="n">
+        <v>556</v>
+      </c>
+      <c r="E123" t="n">
+        <v>556</v>
+      </c>
+      <c r="F123" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="G123" t="n">
+        <v>20179.0379</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>548</v>
+      </c>
+      <c r="C124" t="n">
+        <v>544</v>
+      </c>
+      <c r="D124" t="n">
+        <v>548</v>
+      </c>
+      <c r="E124" t="n">
+        <v>544</v>
+      </c>
+      <c r="F124" t="n">
+        <v>140.448</v>
+      </c>
+      <c r="G124" t="n">
+        <v>20038.5899</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>544</v>
+      </c>
+      <c r="C125" t="n">
+        <v>544</v>
+      </c>
+      <c r="D125" t="n">
+        <v>544</v>
+      </c>
+      <c r="E125" t="n">
+        <v>544</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>20038.5899</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>544</v>
+      </c>
+      <c r="C126" t="n">
+        <v>571</v>
+      </c>
+      <c r="D126" t="n">
+        <v>572</v>
+      </c>
+      <c r="E126" t="n">
+        <v>543</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3957.175835489511</v>
+      </c>
+      <c r="G126" t="n">
+        <v>23995.76573548951</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>546</v>
+      </c>
+      <c r="C127" t="n">
+        <v>546</v>
+      </c>
+      <c r="D127" t="n">
+        <v>546</v>
+      </c>
+      <c r="E127" t="n">
+        <v>546</v>
+      </c>
+      <c r="F127" t="n">
+        <v>90.07299999999999</v>
+      </c>
+      <c r="G127" t="n">
+        <v>23905.69273548951</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>546</v>
+      </c>
+      <c r="C128" t="n">
+        <v>546</v>
+      </c>
+      <c r="D128" t="n">
+        <v>546</v>
+      </c>
+      <c r="E128" t="n">
+        <v>546</v>
+      </c>
+      <c r="F128" t="n">
+        <v>185.531</v>
+      </c>
+      <c r="G128" t="n">
+        <v>23905.69273548951</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>548</v>
+      </c>
+      <c r="C129" t="n">
+        <v>547</v>
+      </c>
+      <c r="D129" t="n">
+        <v>548</v>
+      </c>
+      <c r="E129" t="n">
+        <v>547</v>
+      </c>
+      <c r="F129" t="n">
+        <v>700.8794</v>
+      </c>
+      <c r="G129" t="n">
+        <v>24606.57213548951</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>547</v>
+      </c>
+      <c r="C130" t="n">
+        <v>547</v>
+      </c>
+      <c r="D130" t="n">
+        <v>547</v>
+      </c>
+      <c r="E130" t="n">
+        <v>547</v>
+      </c>
+      <c r="F130" t="n">
+        <v>365.6307</v>
+      </c>
+      <c r="G130" t="n">
+        <v>24606.57213548951</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>547</v>
+      </c>
+      <c r="C131" t="n">
+        <v>547</v>
+      </c>
+      <c r="D131" t="n">
+        <v>547</v>
+      </c>
+      <c r="E131" t="n">
+        <v>547</v>
+      </c>
+      <c r="F131" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="G131" t="n">
+        <v>24606.57213548951</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>546</v>
+      </c>
+      <c r="C132" t="n">
+        <v>539</v>
+      </c>
+      <c r="D132" t="n">
+        <v>546</v>
+      </c>
+      <c r="E132" t="n">
+        <v>539</v>
+      </c>
+      <c r="F132" t="n">
+        <v>727.8261</v>
+      </c>
+      <c r="G132" t="n">
+        <v>23878.74603548951</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>540</v>
+      </c>
+      <c r="C133" t="n">
+        <v>540</v>
+      </c>
+      <c r="D133" t="n">
+        <v>540</v>
+      </c>
+      <c r="E133" t="n">
+        <v>540</v>
+      </c>
+      <c r="F133" t="n">
+        <v>211.1163</v>
+      </c>
+      <c r="G133" t="n">
+        <v>24089.86233548951</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>562</v>
+      </c>
+      <c r="C134" t="n">
+        <v>562</v>
+      </c>
+      <c r="D134" t="n">
+        <v>562</v>
+      </c>
+      <c r="E134" t="n">
+        <v>562</v>
+      </c>
+      <c r="F134" t="n">
+        <v>22.8879</v>
+      </c>
+      <c r="G134" t="n">
+        <v>24112.75023548951</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>560</v>
+      </c>
+      <c r="C135" t="n">
+        <v>560</v>
+      </c>
+      <c r="D135" t="n">
+        <v>560</v>
+      </c>
+      <c r="E135" t="n">
+        <v>560</v>
+      </c>
+      <c r="F135" t="n">
+        <v>67.18600000000001</v>
+      </c>
+      <c r="G135" t="n">
+        <v>24045.56423548951</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>561</v>
+      </c>
+      <c r="C136" t="n">
+        <v>561</v>
+      </c>
+      <c r="D136" t="n">
+        <v>561</v>
+      </c>
+      <c r="E136" t="n">
+        <v>561</v>
+      </c>
+      <c r="F136" t="n">
+        <v>73.37050000000001</v>
+      </c>
+      <c r="G136" t="n">
+        <v>24118.93473548951</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-28 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>12026.7989</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>533</v>
@@ -1028,7 +1028,7 @@
         <v>13247.8651</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1127,7 +1127,7 @@
         <v>15885.4515</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1160,7 +1160,7 @@
         <v>13056.3426</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1193,7 +1193,7 @@
         <v>11521.7391</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
         <v>11402.9688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
         <v>11402.9688</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1292,7 +1292,7 @@
         <v>11408.7298</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
         <v>9749.232599999998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1358,7 +1358,7 @@
         <v>9749.232599999998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1391,7 +1391,7 @@
         <v>9817.508299999998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1490,7 +1490,7 @@
         <v>9817.508299999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1523,7 +1523,7 @@
         <v>9817.508299999998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
         <v>9817.508299999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
         <v>9817.508299999998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1985,14 +1985,10 @@
         <v>10912.2933</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>518</v>
-      </c>
-      <c r="J48" t="n">
-        <v>518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2025,14 +2021,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>518</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2061,19 +2051,11 @@
         <v>10945.85</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>526</v>
-      </c>
-      <c r="J50" t="n">
-        <v>518</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2267,14 +2249,10 @@
         <v>10050.8962</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>528</v>
-      </c>
-      <c r="J56" t="n">
-        <v>528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2307,14 +2285,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>528</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2343,19 +2315,11 @@
         <v>10050.8962</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>528</v>
-      </c>
-      <c r="J58" t="n">
-        <v>528</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2384,14 +2348,10 @@
         <v>10050.8962</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>528</v>
-      </c>
-      <c r="J59" t="n">
-        <v>528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2421,19 +2381,11 @@
         <v>10696.2697</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>528</v>
-      </c>
-      <c r="J60" t="n">
-        <v>528</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2462,19 +2414,11 @@
         <v>11854.0904</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>529</v>
-      </c>
-      <c r="J61" t="n">
-        <v>528</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2866,14 +2810,10 @@
         <v>11955.6597</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>529</v>
-      </c>
-      <c r="J73" t="n">
-        <v>529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
@@ -2903,224 +2843,182 @@
         <v>11729.0779</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
         <v>529</v>
       </c>
-      <c r="J74" t="n">
+      <c r="C75" t="n">
         <v>529</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="D75" t="n">
+        <v>529</v>
+      </c>
+      <c r="E75" t="n">
+        <v>529</v>
+      </c>
+      <c r="F75" t="n">
+        <v>290.1594</v>
+      </c>
+      <c r="G75" t="n">
+        <v>12019.2373</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>531</v>
+      </c>
+      <c r="C76" t="n">
+        <v>533</v>
+      </c>
+      <c r="D76" t="n">
+        <v>533</v>
+      </c>
+      <c r="E76" t="n">
+        <v>531</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3432.5876</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15451.8249</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>532</v>
+      </c>
+      <c r="C77" t="n">
+        <v>532</v>
+      </c>
+      <c r="D77" t="n">
+        <v>532</v>
+      </c>
+      <c r="E77" t="n">
+        <v>532</v>
+      </c>
+      <c r="F77" t="n">
+        <v>260.5563</v>
+      </c>
+      <c r="G77" t="n">
+        <v>15191.2686</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>531</v>
+      </c>
+      <c r="C78" t="n">
+        <v>530</v>
+      </c>
+      <c r="D78" t="n">
+        <v>531</v>
+      </c>
+      <c r="E78" t="n">
+        <v>530</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1482.3572</v>
+      </c>
+      <c r="G78" t="n">
+        <v>13708.9114</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>529</v>
+      </c>
+      <c r="C79" t="n">
+        <v>528</v>
+      </c>
+      <c r="D79" t="n">
+        <v>529</v>
+      </c>
+      <c r="E79" t="n">
+        <v>528</v>
+      </c>
+      <c r="F79" t="n">
+        <v>502.9225</v>
+      </c>
+      <c r="G79" t="n">
+        <v>13205.9889</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>530</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>529</v>
-      </c>
-      <c r="C75" t="n">
-        <v>529</v>
-      </c>
-      <c r="D75" t="n">
-        <v>529</v>
-      </c>
-      <c r="E75" t="n">
-        <v>529</v>
-      </c>
-      <c r="F75" t="n">
-        <v>290.1594</v>
-      </c>
-      <c r="G75" t="n">
-        <v>12019.2373</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>528</v>
-      </c>
-      <c r="J75" t="n">
-        <v>529</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>531</v>
-      </c>
-      <c r="C76" t="n">
-        <v>533</v>
-      </c>
-      <c r="D76" t="n">
-        <v>533</v>
-      </c>
-      <c r="E76" t="n">
-        <v>531</v>
-      </c>
-      <c r="F76" t="n">
-        <v>3432.5876</v>
-      </c>
-      <c r="G76" t="n">
-        <v>15451.8249</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>529</v>
-      </c>
-      <c r="J76" t="n">
-        <v>529</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>532</v>
-      </c>
-      <c r="C77" t="n">
-        <v>532</v>
-      </c>
-      <c r="D77" t="n">
-        <v>532</v>
-      </c>
-      <c r="E77" t="n">
-        <v>532</v>
-      </c>
-      <c r="F77" t="n">
-        <v>260.5563</v>
-      </c>
-      <c r="G77" t="n">
-        <v>15191.2686</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>533</v>
-      </c>
-      <c r="J77" t="n">
-        <v>529</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>531</v>
-      </c>
-      <c r="C78" t="n">
-        <v>530</v>
-      </c>
-      <c r="D78" t="n">
-        <v>531</v>
-      </c>
-      <c r="E78" t="n">
-        <v>530</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1482.3572</v>
-      </c>
-      <c r="G78" t="n">
-        <v>13708.9114</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>532</v>
-      </c>
-      <c r="J78" t="n">
-        <v>529</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>529</v>
-      </c>
-      <c r="C79" t="n">
-        <v>528</v>
-      </c>
-      <c r="D79" t="n">
-        <v>529</v>
-      </c>
-      <c r="E79" t="n">
-        <v>528</v>
-      </c>
-      <c r="F79" t="n">
-        <v>502.9225</v>
-      </c>
-      <c r="G79" t="n">
-        <v>13205.9889</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>530</v>
-      </c>
-      <c r="J79" t="n">
-        <v>529</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3149,14 +3047,10 @@
         <v>12420.5323</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>528</v>
-      </c>
-      <c r="J80" t="n">
-        <v>529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3190,14 +3084,12 @@
         <v>11283.5323</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>527</v>
       </c>
-      <c r="J81" t="n">
-        <v>529</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3231,14 +3123,12 @@
         <v>10138.5323</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>524</v>
       </c>
-      <c r="J82" t="n">
-        <v>529</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,14 +3162,12 @@
         <v>11241.5869</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>523</v>
       </c>
-      <c r="J83" t="n">
-        <v>529</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3313,14 +3201,12 @@
         <v>11241.5869</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>531</v>
       </c>
-      <c r="J84" t="n">
-        <v>529</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3354,14 +3240,12 @@
         <v>10142.5869</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>531</v>
       </c>
-      <c r="J85" t="n">
-        <v>529</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3395,14 +3279,12 @@
         <v>10142.5869</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>529</v>
       </c>
-      <c r="J86" t="n">
-        <v>529</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3436,14 +3318,12 @@
         <v>10431.2869</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>529</v>
       </c>
-      <c r="J87" t="n">
-        <v>529</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3477,14 +3357,12 @@
         <v>11669.441</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>531</v>
       </c>
-      <c r="J88" t="n">
-        <v>529</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3518,14 +3396,12 @@
         <v>11673.441</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>532</v>
       </c>
-      <c r="J89" t="n">
-        <v>529</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3559,14 +3435,12 @@
         <v>11673.441</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>533</v>
       </c>
-      <c r="J90" t="n">
-        <v>529</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3600,12 +3474,12 @@
         <v>11673.441</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>529</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>533</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3639,14 +3513,10 @@
         <v>12108.7012</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>533</v>
-      </c>
-      <c r="J92" t="n">
-        <v>529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,14 +3550,10 @@
         <v>15399.6404</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>534</v>
-      </c>
-      <c r="J93" t="n">
-        <v>529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3721,14 +3587,10 @@
         <v>15400.6404</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>535</v>
-      </c>
-      <c r="J94" t="n">
-        <v>529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3765,9 +3627,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>529</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,9 +3664,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>529</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3843,9 +3701,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>529</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3879,14 +3735,10 @@
         <v>17884.4237</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>543</v>
-      </c>
-      <c r="J98" t="n">
-        <v>529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3923,9 +3775,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>529</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3962,9 +3812,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>529</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4001,9 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>529</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4040,9 +3886,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>529</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4076,251 +3920,275 @@
         <v>21739.0723</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>529</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>550</v>
+      </c>
+      <c r="C104" t="n">
+        <v>550</v>
+      </c>
+      <c r="D104" t="n">
+        <v>550</v>
+      </c>
+      <c r="E104" t="n">
+        <v>550</v>
+      </c>
+      <c r="F104" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="G104" t="n">
+        <v>21577.3723</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>550</v>
+      </c>
+      <c r="C105" t="n">
+        <v>550</v>
+      </c>
+      <c r="D105" t="n">
+        <v>550</v>
+      </c>
+      <c r="E105" t="n">
+        <v>550</v>
+      </c>
+      <c r="F105" t="n">
+        <v>710.3213</v>
+      </c>
+      <c r="G105" t="n">
+        <v>21577.3723</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>557</v>
+      </c>
+      <c r="C106" t="n">
+        <v>557</v>
+      </c>
+      <c r="D106" t="n">
+        <v>557</v>
+      </c>
+      <c r="E106" t="n">
+        <v>557</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>21578.3723</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>557</v>
+      </c>
+      <c r="C107" t="n">
+        <v>557</v>
+      </c>
+      <c r="D107" t="n">
+        <v>557</v>
+      </c>
+      <c r="E107" t="n">
+        <v>557</v>
+      </c>
+      <c r="F107" t="n">
+        <v>183.2333</v>
+      </c>
+      <c r="G107" t="n">
+        <v>21578.3723</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>557</v>
+      </c>
+      <c r="C108" t="n">
+        <v>557</v>
+      </c>
+      <c r="D108" t="n">
+        <v>557</v>
+      </c>
+      <c r="E108" t="n">
+        <v>557</v>
+      </c>
+      <c r="F108" t="n">
+        <v>35.906</v>
+      </c>
+      <c r="G108" t="n">
+        <v>21578.3723</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>547</v>
+      </c>
+      <c r="C109" t="n">
+        <v>547</v>
+      </c>
+      <c r="D109" t="n">
+        <v>547</v>
+      </c>
+      <c r="E109" t="n">
+        <v>547</v>
+      </c>
+      <c r="F109" t="n">
+        <v>90.163</v>
+      </c>
+      <c r="G109" t="n">
+        <v>21488.2093</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>546</v>
+      </c>
+      <c r="C110" t="n">
+        <v>554</v>
+      </c>
+      <c r="D110" t="n">
+        <v>554</v>
+      </c>
+      <c r="E110" t="n">
+        <v>545</v>
+      </c>
+      <c r="F110" t="n">
+        <v>115.1147</v>
+      </c>
+      <c r="G110" t="n">
+        <v>21603.324</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1.047930056710775</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>550</v>
-      </c>
-      <c r="C104" t="n">
-        <v>550</v>
-      </c>
-      <c r="D104" t="n">
-        <v>550</v>
-      </c>
-      <c r="E104" t="n">
-        <v>550</v>
-      </c>
-      <c r="F104" t="n">
-        <v>161.7</v>
-      </c>
-      <c r="G104" t="n">
-        <v>21577.3723</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>550</v>
-      </c>
-      <c r="C105" t="n">
-        <v>550</v>
-      </c>
-      <c r="D105" t="n">
-        <v>550</v>
-      </c>
-      <c r="E105" t="n">
-        <v>550</v>
-      </c>
-      <c r="F105" t="n">
-        <v>710.3213</v>
-      </c>
-      <c r="G105" t="n">
-        <v>21577.3723</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>557</v>
-      </c>
-      <c r="C106" t="n">
-        <v>557</v>
-      </c>
-      <c r="D106" t="n">
-        <v>557</v>
-      </c>
-      <c r="E106" t="n">
-        <v>557</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" t="n">
-        <v>21578.3723</v>
-      </c>
-      <c r="H106" t="n">
-        <v>3</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>557</v>
-      </c>
-      <c r="C107" t="n">
-        <v>557</v>
-      </c>
-      <c r="D107" t="n">
-        <v>557</v>
-      </c>
-      <c r="E107" t="n">
-        <v>557</v>
-      </c>
-      <c r="F107" t="n">
-        <v>183.2333</v>
-      </c>
-      <c r="G107" t="n">
-        <v>21578.3723</v>
-      </c>
-      <c r="H107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>557</v>
-      </c>
-      <c r="C108" t="n">
-        <v>557</v>
-      </c>
-      <c r="D108" t="n">
-        <v>557</v>
-      </c>
-      <c r="E108" t="n">
-        <v>557</v>
-      </c>
-      <c r="F108" t="n">
-        <v>35.906</v>
-      </c>
-      <c r="G108" t="n">
-        <v>21578.3723</v>
-      </c>
-      <c r="H108" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>547</v>
-      </c>
-      <c r="C109" t="n">
-        <v>547</v>
-      </c>
-      <c r="D109" t="n">
-        <v>547</v>
-      </c>
-      <c r="E109" t="n">
-        <v>547</v>
-      </c>
-      <c r="F109" t="n">
-        <v>90.163</v>
-      </c>
-      <c r="G109" t="n">
-        <v>21488.2093</v>
-      </c>
-      <c r="H109" t="n">
-        <v>3</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>546</v>
-      </c>
-      <c r="C110" t="n">
-        <v>554</v>
-      </c>
-      <c r="D110" t="n">
-        <v>554</v>
-      </c>
-      <c r="E110" t="n">
-        <v>545</v>
-      </c>
-      <c r="F110" t="n">
-        <v>115.1147</v>
-      </c>
-      <c r="G110" t="n">
-        <v>21603.324</v>
-      </c>
-      <c r="H110" t="n">
-        <v>3</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -4346,7 +4214,7 @@
         <v>19494.4026</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4379,7 +4247,7 @@
         <v>19494.4026</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4412,7 +4280,7 @@
         <v>17671.793</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4445,7 +4313,7 @@
         <v>17671.793</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4478,7 +4346,7 @@
         <v>17671.793</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4511,7 +4379,7 @@
         <v>17280.9255</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4544,7 +4412,7 @@
         <v>17164.3858</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4577,7 +4445,7 @@
         <v>17251.5488</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4610,7 +4478,7 @@
         <v>18481.4769</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4643,7 +4511,7 @@
         <v>18431.4769</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4676,7 +4544,7 @@
         <v>20038.2379</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4709,7 +4577,7 @@
         <v>20038.2379</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4742,7 +4610,7 @@
         <v>20179.0379</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4775,7 +4643,7 @@
         <v>20038.5899</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4808,7 +4676,7 @@
         <v>20038.5899</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4841,7 +4709,7 @@
         <v>23995.76573548951</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4874,7 +4742,7 @@
         <v>23905.69273548951</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4907,7 +4775,7 @@
         <v>23905.69273548951</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4940,7 +4808,7 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4973,7 +4841,7 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5006,7 +4874,7 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5039,7 +4907,7 @@
         <v>23878.74603548951</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5072,7 +4940,7 @@
         <v>24089.86233548951</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5105,7 +4973,7 @@
         <v>24112.75023548951</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5182,6 +5050,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-28 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>12026.7989</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>12026.7989</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>533</v>
-      </c>
-      <c r="J3" t="n">
-        <v>533</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>533</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>533</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -599,7 +583,7 @@
         <v>12564.9402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -632,7 +616,7 @@
         <v>12083.7052</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -731,7 +715,7 @@
         <v>12193.0268</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -863,7 +847,7 @@
         <v>12195.0268</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -896,7 +880,7 @@
         <v>12195.0268</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1028,7 +1012,7 @@
         <v>13247.8651</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1127,7 +1111,7 @@
         <v>15885.4515</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1160,7 +1144,7 @@
         <v>13056.3426</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1193,7 +1177,7 @@
         <v>11521.7391</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1226,7 +1210,7 @@
         <v>11402.9688</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1259,7 +1243,7 @@
         <v>11402.9688</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1292,7 +1276,7 @@
         <v>11408.7298</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1325,7 +1309,7 @@
         <v>9749.232599999998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1391,7 +1375,7 @@
         <v>9817.508299999998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1490,7 +1474,7 @@
         <v>9817.508299999998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1523,7 +1507,7 @@
         <v>9817.508299999998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1556,7 +1540,7 @@
         <v>9817.508299999998</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1589,7 +1573,7 @@
         <v>9817.508299999998</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1919,11 +1903,17 @@
         <v>12490.5346</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>520</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +1942,17 @@
         <v>10560.2933</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>527</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +1981,17 @@
         <v>10912.2933</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>518</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2020,17 @@
         <v>10917.85</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>519</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2059,17 @@
         <v>10945.85</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>526</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2088,7 +2102,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2121,7 +2139,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2154,7 +2176,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2209,17 @@
         <v>10243.2962</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>529</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2220,7 +2252,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2289,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2286,7 +2326,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2319,7 +2363,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2352,7 +2400,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2433,17 @@
         <v>10696.2697</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>528</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2472,17 @@
         <v>11854.0904</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>529</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2447,11 +2511,17 @@
         <v>13595.7158</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>530</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2480,11 +2550,17 @@
         <v>11672.3038</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>534</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2517,7 +2593,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2550,7 +2630,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2583,7 +2667,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2616,7 +2704,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2649,7 +2741,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,7 +2778,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2715,7 +2815,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2748,7 +2852,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,7 +2889,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2810,11 +2922,17 @@
         <v>11955.6597</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>529</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2843,11 +2961,17 @@
         <v>11729.0779</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>529</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +3000,17 @@
         <v>12019.2373</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>528</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2913,7 +3043,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2946,7 +3080,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2979,7 +3117,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3008,15 +3150,13 @@
         <v>13205.9889</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3084,11 +3224,9 @@
         <v>11283.5323</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3201,11 +3339,9 @@
         <v>11241.5869</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3240,11 +3376,9 @@
         <v>10142.5869</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3279,11 +3413,9 @@
         <v>10142.5869</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3318,11 +3450,9 @@
         <v>10431.2869</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3357,11 +3487,9 @@
         <v>11669.441</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3396,11 +3524,9 @@
         <v>11673.441</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3435,11 +3561,9 @@
         <v>11673.441</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3474,11 +3598,9 @@
         <v>11673.441</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -4179,16 +4301,18 @@
         <v>21603.324</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
       <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -4214,11 +4338,15 @@
         <v>19494.4026</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4247,11 +4375,15 @@
         <v>19494.4026</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4280,11 +4412,15 @@
         <v>17671.793</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4313,11 +4449,15 @@
         <v>17671.793</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4346,11 +4486,15 @@
         <v>17671.793</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4379,11 +4523,15 @@
         <v>17280.9255</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4412,11 +4560,15 @@
         <v>17164.3858</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4445,11 +4597,15 @@
         <v>17251.5488</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4478,11 +4634,15 @@
         <v>18481.4769</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4511,11 +4671,15 @@
         <v>18431.4769</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4544,11 +4708,15 @@
         <v>20038.2379</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4577,11 +4745,15 @@
         <v>20038.2379</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4610,11 +4782,15 @@
         <v>20179.0379</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4643,11 +4819,15 @@
         <v>20038.5899</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4676,11 +4856,15 @@
         <v>20038.5899</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4709,11 +4893,15 @@
         <v>23995.76573548951</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4742,11 +4930,15 @@
         <v>23905.69273548951</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4775,11 +4967,15 @@
         <v>23905.69273548951</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4808,11 +5004,15 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4841,11 +5041,15 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4874,11 +5078,15 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4907,11 +5115,15 @@
         <v>23878.74603548951</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4940,11 +5152,15 @@
         <v>24089.86233548951</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4973,11 +5189,15 @@
         <v>24112.75023548951</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5010,7 +5230,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5043,13 +5267,17 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-28 BackTest VALOR.xlsx
@@ -451,7 +451,7 @@
         <v>12026.7989</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>12026.7989</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>12564.9402</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>12083.7052</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>12193.0268</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>12195.0268</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>12195.0268</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1903,17 +1903,11 @@
         <v>12490.5346</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1942,17 +1936,11 @@
         <v>10560.2933</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1981,17 +1969,11 @@
         <v>10912.2933</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2025,12 +2007,10 @@
       <c r="I49" t="n">
         <v>519</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="n">
+        <v>519</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2064,10 +2044,12 @@
       <c r="I50" t="n">
         <v>526</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>519</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2101,10 +2083,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>519</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2139,11 +2123,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2176,11 +2156,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2214,12 +2190,10 @@
       <c r="I54" t="n">
         <v>529</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="n">
+        <v>529</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2248,13 +2222,17 @@
         <v>10050.8962</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>529</v>
+      </c>
+      <c r="J55" t="n">
+        <v>529</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2285,13 +2263,17 @@
         <v>10050.8962</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>528</v>
+      </c>
+      <c r="J56" t="n">
+        <v>529</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2326,11 +2308,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2359,15 +2337,15 @@
         <v>10050.8962</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>528</v>
+      </c>
+      <c r="J58" t="n">
+        <v>528</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2396,13 +2374,17 @@
         <v>10050.8962</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>528</v>
+      </c>
+      <c r="J59" t="n">
+        <v>528</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2438,10 +2420,12 @@
       <c r="I60" t="n">
         <v>528</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>528</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2477,10 +2461,12 @@
       <c r="I61" t="n">
         <v>529</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>528</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2516,7 +2502,9 @@
       <c r="I62" t="n">
         <v>530</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>528</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2550,12 +2538,12 @@
         <v>11672.3038</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>534</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>528</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2592,7 +2580,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>528</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2629,7 +2619,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>528</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2663,10 +2655,14 @@
         <v>11672.3038</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>533</v>
+      </c>
+      <c r="J66" t="n">
+        <v>528</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2703,7 +2699,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>528</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2737,10 +2735,14 @@
         <v>11672.3038</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>533</v>
+      </c>
+      <c r="J68" t="n">
+        <v>528</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2774,10 +2776,14 @@
         <v>11672.3038</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>533</v>
+      </c>
+      <c r="J69" t="n">
+        <v>528</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2811,10 +2817,14 @@
         <v>11513.8629</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>533</v>
+      </c>
+      <c r="J70" t="n">
+        <v>528</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2848,10 +2858,14 @@
         <v>12392.3496</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>527</v>
+      </c>
+      <c r="J71" t="n">
+        <v>528</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,7 +2902,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>528</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,12 +2938,12 @@
         <v>11955.6597</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>529</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>528</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,7 +2982,9 @@
       <c r="I74" t="n">
         <v>529</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>528</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3005,7 +3023,9 @@
       <c r="I75" t="n">
         <v>528</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>528</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3039,10 +3059,14 @@
         <v>15451.8249</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>529</v>
+      </c>
+      <c r="J76" t="n">
+        <v>528</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3079,7 +3103,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>528</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3116,7 +3142,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>528</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3150,10 +3178,14 @@
         <v>13205.9889</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>530</v>
+      </c>
+      <c r="J79" t="n">
+        <v>528</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3187,10 +3219,14 @@
         <v>12420.5323</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>528</v>
+      </c>
+      <c r="J80" t="n">
+        <v>528</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3224,10 +3260,14 @@
         <v>11283.5323</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>527</v>
+      </c>
+      <c r="J81" t="n">
+        <v>528</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,7 +3306,9 @@
       <c r="I82" t="n">
         <v>524</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>528</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3305,7 +3347,9 @@
       <c r="I83" t="n">
         <v>523</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>528</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3339,10 +3383,14 @@
         <v>11241.5869</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>531</v>
+      </c>
+      <c r="J84" t="n">
+        <v>528</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3376,10 +3424,14 @@
         <v>10142.5869</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>531</v>
+      </c>
+      <c r="J85" t="n">
+        <v>528</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3413,10 +3465,14 @@
         <v>10142.5869</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>529</v>
+      </c>
+      <c r="J86" t="n">
+        <v>528</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3450,10 +3506,14 @@
         <v>10431.2869</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>529</v>
+      </c>
+      <c r="J87" t="n">
+        <v>528</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3487,10 +3547,14 @@
         <v>11669.441</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>531</v>
+      </c>
+      <c r="J88" t="n">
+        <v>528</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3527,7 +3591,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>528</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3564,7 +3630,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>528</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3598,10 +3666,14 @@
         <v>11673.441</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>533</v>
+      </c>
+      <c r="J91" t="n">
+        <v>528</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3635,10 +3707,14 @@
         <v>12108.7012</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>533</v>
+      </c>
+      <c r="J92" t="n">
+        <v>528</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,7 +3751,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>528</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3712,7 +3790,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>528</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3749,7 +3829,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>528</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3786,7 +3868,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>528</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,7 +3907,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>528</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,7 +3946,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>528</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,7 +3985,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>528</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,7 +4024,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>528</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3971,7 +4063,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>528</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4008,7 +4102,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>528</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4045,7 +4141,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>528</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,7 +4180,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>528</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4119,7 +4219,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>528</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4156,7 +4258,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>528</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4190,17 +4294,19 @@
         <v>21578.3723</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>528</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>1.049924242424243</v>
       </c>
       <c r="M107" t="inlineStr"/>
     </row>
@@ -4227,15 +4333,11 @@
         <v>21578.3723</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4264,15 +4366,11 @@
         <v>21488.2093</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4301,15 +4399,11 @@
         <v>21603.324</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4342,11 +4436,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4375,15 +4465,11 @@
         <v>19494.4026</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4416,11 +4502,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4453,11 +4535,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4490,11 +4568,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4527,11 +4601,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4564,11 +4634,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4601,11 +4667,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4638,11 +4700,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4671,15 +4729,11 @@
         <v>18431.4769</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4712,11 +4766,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4749,11 +4799,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4782,15 +4828,11 @@
         <v>20179.0379</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4819,15 +4861,11 @@
         <v>20038.5899</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4860,11 +4898,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4893,15 +4927,11 @@
         <v>23995.76573548951</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4930,15 +4960,11 @@
         <v>23905.69273548951</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4967,15 +4993,11 @@
         <v>23905.69273548951</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5004,15 +5026,11 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5041,15 +5059,11 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5078,15 +5092,11 @@
         <v>24606.57213548951</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5115,15 +5125,11 @@
         <v>23878.74603548951</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5156,11 +5162,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5193,11 +5195,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5226,15 +5224,11 @@
         <v>24045.56423548951</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5263,15 +5257,11 @@
         <v>24118.93473548951</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest VALOR.xlsx
+++ b/BackTest/2019-10-28 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>416.075</v>
       </c>
       <c r="G2" t="n">
-        <v>12026.7989</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>368.7</v>
       </c>
       <c r="G3" t="n">
-        <v>12026.7989</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>533</v>
+      </c>
+      <c r="I3" t="n">
+        <v>533</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,21 @@
         <v>351.5834</v>
       </c>
       <c r="G4" t="n">
-        <v>12378.3823</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>533</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +543,21 @@
         <v>370.0878</v>
       </c>
       <c r="G5" t="n">
-        <v>12748.4701</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>533</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +579,15 @@
         <v>183.5299</v>
       </c>
       <c r="G6" t="n">
-        <v>12564.9402</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +609,15 @@
         <v>481.235</v>
       </c>
       <c r="G7" t="n">
-        <v>12083.7052</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +639,21 @@
         <v>629.7291</v>
       </c>
       <c r="G8" t="n">
-        <v>11453.9761</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +675,21 @@
         <v>739.0507</v>
       </c>
       <c r="G9" t="n">
-        <v>12193.0268</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +711,21 @@
         <v>124.6788</v>
       </c>
       <c r="G10" t="n">
-        <v>12193.0268</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +747,21 @@
         <v>200</v>
       </c>
       <c r="G11" t="n">
-        <v>12193.0268</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +783,21 @@
         <v>118.5015</v>
       </c>
       <c r="G12" t="n">
-        <v>12193.0268</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +819,21 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>12195.0268</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +855,21 @@
         <v>28.4384</v>
       </c>
       <c r="G14" t="n">
-        <v>12195.0268</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +891,21 @@
         <v>1062.2003</v>
       </c>
       <c r="G15" t="n">
-        <v>12195.0268</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +927,21 @@
         <v>339.9624</v>
       </c>
       <c r="G16" t="n">
-        <v>12195.0268</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +963,21 @@
         <v>265.1517</v>
       </c>
       <c r="G17" t="n">
-        <v>12195.0268</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +999,19 @@
         <v>518.4379</v>
       </c>
       <c r="G18" t="n">
-        <v>12713.4647</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1033,19 @@
         <v>534.4004</v>
       </c>
       <c r="G19" t="n">
-        <v>13247.8651</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1067,19 @@
         <v>201.8484</v>
       </c>
       <c r="G20" t="n">
-        <v>13247.8651</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1101,19 @@
         <v>1845.7855</v>
       </c>
       <c r="G21" t="n">
-        <v>15093.6506</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1135,19 @@
         <v>791.8009</v>
       </c>
       <c r="G22" t="n">
-        <v>15885.4515</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1169,19 @@
         <v>2829.1089</v>
       </c>
       <c r="G23" t="n">
-        <v>13056.3426</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1203,19 @@
         <v>1534.6035</v>
       </c>
       <c r="G24" t="n">
-        <v>11521.7391</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1237,19 @@
         <v>118.7703</v>
       </c>
       <c r="G25" t="n">
-        <v>11402.9688</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1271,19 @@
         <v>374.3845</v>
       </c>
       <c r="G26" t="n">
-        <v>11402.9688</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1305,19 @@
         <v>5.761</v>
       </c>
       <c r="G27" t="n">
-        <v>11408.7298</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1339,19 @@
         <v>1659.4972</v>
       </c>
       <c r="G28" t="n">
-        <v>9749.232599999998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1373,19 @@
         <v>770.1077</v>
       </c>
       <c r="G29" t="n">
-        <v>9749.232599999998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1407,19 @@
         <v>68.2757</v>
       </c>
       <c r="G30" t="n">
-        <v>9817.508299999998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1441,19 @@
         <v>481.2839</v>
       </c>
       <c r="G31" t="n">
-        <v>9817.508299999998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1475,19 @@
         <v>1238.3278</v>
       </c>
       <c r="G32" t="n">
-        <v>9817.508299999998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1509,19 @@
         <v>560.0511</v>
       </c>
       <c r="G33" t="n">
-        <v>9817.508299999998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1543,19 @@
         <v>765.9023</v>
       </c>
       <c r="G34" t="n">
-        <v>9817.508299999998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1577,21 @@
         <v>4011.0758</v>
       </c>
       <c r="G35" t="n">
-        <v>9817.508299999998</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1613,21 @@
         <v>530.3977</v>
       </c>
       <c r="G36" t="n">
-        <v>9817.508299999998</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1649,21 @@
         <v>36.6231</v>
       </c>
       <c r="G37" t="n">
-        <v>9817.508299999998</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1685,19 @@
         <v>112</v>
       </c>
       <c r="G38" t="n">
-        <v>9817.508299999998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1719,21 @@
         <v>716.7285000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>9817.508299999998</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1755,19 @@
         <v>226.1767</v>
       </c>
       <c r="G40" t="n">
-        <v>9817.508299999998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1789,21 @@
         <v>1217.4458</v>
       </c>
       <c r="G41" t="n">
-        <v>9817.508299999998</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1825,21 @@
         <v>1279.1962</v>
       </c>
       <c r="G42" t="n">
-        <v>9817.508299999998</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1861,21 @@
         <v>100</v>
       </c>
       <c r="G43" t="n">
-        <v>9817.508299999998</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1897,21 @@
         <v>1917.4331</v>
       </c>
       <c r="G44" t="n">
-        <v>9817.508299999998</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1933,21 @@
         <v>254.1877</v>
       </c>
       <c r="G45" t="n">
-        <v>9563.320599999997</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1969,21 @@
         <v>2927.214</v>
       </c>
       <c r="G46" t="n">
-        <v>12490.5346</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2005,21 @@
         <v>1930.2413</v>
       </c>
       <c r="G47" t="n">
-        <v>10560.2933</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2041,21 @@
         <v>352</v>
       </c>
       <c r="G48" t="n">
-        <v>10912.2933</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,22 +2077,21 @@
         <v>5.5567</v>
       </c>
       <c r="G49" t="n">
-        <v>10917.85</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
         <v>519</v>
       </c>
-      <c r="J49" t="n">
-        <v>519</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2036,26 +2113,21 @@
         <v>28</v>
       </c>
       <c r="G50" t="n">
-        <v>10945.85</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
         <v>526</v>
       </c>
-      <c r="J50" t="n">
-        <v>519</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2077,24 +2149,21 @@
         <v>1003.279</v>
       </c>
       <c r="G51" t="n">
-        <v>10945.85</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>519</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2116,18 +2185,19 @@
         <v>702.5538</v>
       </c>
       <c r="G52" t="n">
-        <v>10243.2962</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2149,18 +2219,21 @@
         <v>488.8607</v>
       </c>
       <c r="G53" t="n">
-        <v>10243.2962</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2182,22 +2255,21 @@
         <v>50.5646</v>
       </c>
       <c r="G54" t="n">
-        <v>10243.2962</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>529</v>
-      </c>
-      <c r="J54" t="n">
-        <v>529</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>529</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2219,26 +2291,21 @@
         <v>192.4</v>
       </c>
       <c r="G55" t="n">
-        <v>10050.8962</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>529</v>
-      </c>
-      <c r="J55" t="n">
-        <v>529</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>529</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2260,26 +2327,21 @@
         <v>511.4279</v>
       </c>
       <c r="G56" t="n">
-        <v>10050.8962</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>528</v>
-      </c>
-      <c r="J56" t="n">
-        <v>529</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>528</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2301,18 +2363,21 @@
         <v>3.5471</v>
       </c>
       <c r="G57" t="n">
-        <v>10050.8962</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2334,22 +2399,21 @@
         <v>96.3</v>
       </c>
       <c r="G58" t="n">
-        <v>10050.8962</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>528</v>
-      </c>
-      <c r="J58" t="n">
-        <v>528</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>528</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2371,26 +2435,21 @@
         <v>93.7623</v>
       </c>
       <c r="G59" t="n">
-        <v>10050.8962</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>528</v>
-      </c>
-      <c r="J59" t="n">
-        <v>528</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>528</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2412,26 +2471,21 @@
         <v>645.3735</v>
       </c>
       <c r="G60" t="n">
-        <v>10696.2697</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>528</v>
-      </c>
-      <c r="J60" t="n">
-        <v>528</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>528</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2453,26 +2507,21 @@
         <v>1157.8207</v>
       </c>
       <c r="G61" t="n">
-        <v>11854.0904</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>529</v>
-      </c>
-      <c r="J61" t="n">
-        <v>528</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>529</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2494,26 +2543,21 @@
         <v>1741.6254</v>
       </c>
       <c r="G62" t="n">
-        <v>13595.7158</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
         <v>530</v>
       </c>
-      <c r="J62" t="n">
-        <v>528</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2535,24 +2579,19 @@
         <v>1923.412</v>
       </c>
       <c r="G63" t="n">
-        <v>11672.3038</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>528</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2574,24 +2613,19 @@
         <v>1660.581</v>
       </c>
       <c r="G64" t="n">
-        <v>11672.3038</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>528</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2613,24 +2647,19 @@
         <v>367.3334</v>
       </c>
       <c r="G65" t="n">
-        <v>11672.3038</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>528</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2652,26 +2681,19 @@
         <v>2155.7298</v>
       </c>
       <c r="G66" t="n">
-        <v>11672.3038</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>533</v>
-      </c>
-      <c r="J66" t="n">
-        <v>528</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2693,24 +2715,21 @@
         <v>1149.8217</v>
       </c>
       <c r="G67" t="n">
-        <v>11672.3038</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>528</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2732,26 +2751,19 @@
         <v>158.4409</v>
       </c>
       <c r="G68" t="n">
-        <v>11672.3038</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>533</v>
-      </c>
-      <c r="J68" t="n">
-        <v>528</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2773,26 +2785,19 @@
         <v>1579.5558</v>
       </c>
       <c r="G69" t="n">
-        <v>11672.3038</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>533</v>
-      </c>
-      <c r="J69" t="n">
-        <v>528</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2814,26 +2819,19 @@
         <v>158.4409</v>
       </c>
       <c r="G70" t="n">
-        <v>11513.8629</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>533</v>
-      </c>
-      <c r="J70" t="n">
-        <v>528</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2855,26 +2853,21 @@
         <v>878.4867</v>
       </c>
       <c r="G71" t="n">
-        <v>12392.3496</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
         <v>527</v>
       </c>
-      <c r="J71" t="n">
-        <v>528</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2896,24 +2889,21 @@
         <v>436.6899</v>
       </c>
       <c r="G72" t="n">
-        <v>11955.6597</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>528</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2935,24 +2925,21 @@
         <v>292.2646</v>
       </c>
       <c r="G73" t="n">
-        <v>11955.6597</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>528</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2974,26 +2961,21 @@
         <v>226.5818</v>
       </c>
       <c r="G74" t="n">
-        <v>11729.0779</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>529</v>
-      </c>
-      <c r="J74" t="n">
-        <v>528</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>529</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3015,26 +2997,21 @@
         <v>290.1594</v>
       </c>
       <c r="G75" t="n">
-        <v>12019.2373</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>528</v>
-      </c>
-      <c r="J75" t="n">
-        <v>528</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>528</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3056,26 +3033,21 @@
         <v>3432.5876</v>
       </c>
       <c r="G76" t="n">
-        <v>15451.8249</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>529</v>
-      </c>
-      <c r="J76" t="n">
-        <v>528</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>529</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3097,24 +3069,19 @@
         <v>260.5563</v>
       </c>
       <c r="G77" t="n">
-        <v>15191.2686</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>528</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3136,24 +3103,19 @@
         <v>1482.3572</v>
       </c>
       <c r="G78" t="n">
-        <v>13708.9114</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>528</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3175,26 +3137,19 @@
         <v>502.9225</v>
       </c>
       <c r="G79" t="n">
-        <v>13205.9889</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>530</v>
-      </c>
-      <c r="J79" t="n">
-        <v>528</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3216,26 +3171,21 @@
         <v>785.4566</v>
       </c>
       <c r="G80" t="n">
-        <v>12420.5323</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>528</v>
-      </c>
-      <c r="J80" t="n">
-        <v>528</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>528</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3257,26 +3207,21 @@
         <v>1137</v>
       </c>
       <c r="G81" t="n">
-        <v>11283.5323</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
         <v>527</v>
       </c>
-      <c r="J81" t="n">
-        <v>528</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3298,26 +3243,21 @@
         <v>1145</v>
       </c>
       <c r="G82" t="n">
-        <v>10138.5323</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
         <v>524</v>
       </c>
-      <c r="J82" t="n">
-        <v>528</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3339,26 +3279,21 @@
         <v>1103.0546</v>
       </c>
       <c r="G83" t="n">
-        <v>11241.5869</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
         <v>523</v>
       </c>
-      <c r="J83" t="n">
-        <v>528</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3380,26 +3315,21 @@
         <v>215.3201</v>
       </c>
       <c r="G84" t="n">
-        <v>11241.5869</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
         <v>531</v>
       </c>
-      <c r="J84" t="n">
-        <v>528</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3421,26 +3351,21 @@
         <v>1099</v>
       </c>
       <c r="G85" t="n">
-        <v>10142.5869</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
         <v>531</v>
       </c>
-      <c r="J85" t="n">
-        <v>528</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3462,26 +3387,19 @@
         <v>0.7587</v>
       </c>
       <c r="G86" t="n">
-        <v>10142.5869</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>529</v>
-      </c>
-      <c r="J86" t="n">
-        <v>528</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3503,26 +3421,19 @@
         <v>288.7</v>
       </c>
       <c r="G87" t="n">
-        <v>10431.2869</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>529</v>
-      </c>
-      <c r="J87" t="n">
-        <v>528</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3544,26 +3455,19 @@
         <v>1238.1541</v>
       </c>
       <c r="G88" t="n">
-        <v>11669.441</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>531</v>
-      </c>
-      <c r="J88" t="n">
-        <v>528</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3585,24 +3489,19 @@
         <v>4</v>
       </c>
       <c r="G89" t="n">
-        <v>11673.441</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>528</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,24 +3523,21 @@
         <v>1716.4484</v>
       </c>
       <c r="G90" t="n">
-        <v>11673.441</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>528</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3663,26 +3559,19 @@
         <v>211.6454</v>
       </c>
       <c r="G91" t="n">
-        <v>11673.441</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>533</v>
-      </c>
-      <c r="J91" t="n">
-        <v>528</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3704,26 +3593,21 @@
         <v>435.2602</v>
       </c>
       <c r="G92" t="n">
-        <v>12108.7012</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>533</v>
-      </c>
-      <c r="J92" t="n">
-        <v>528</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>533</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3745,24 +3629,19 @@
         <v>3290.9392</v>
       </c>
       <c r="G93" t="n">
-        <v>15399.6404</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>528</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3784,24 +3663,19 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>15400.6404</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>528</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3823,24 +3697,19 @@
         <v>2453.7968</v>
       </c>
       <c r="G95" t="n">
-        <v>15400.6404</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>528</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3862,24 +3731,19 @@
         <v>640.8419</v>
       </c>
       <c r="G96" t="n">
-        <v>16041.4823</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>528</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3901,24 +3765,19 @@
         <v>1000</v>
       </c>
       <c r="G97" t="n">
-        <v>16041.4823</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>528</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3940,24 +3799,19 @@
         <v>1842.9414</v>
       </c>
       <c r="G98" t="n">
-        <v>17884.4237</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>528</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3979,24 +3833,19 @@
         <v>301.677</v>
       </c>
       <c r="G99" t="n">
-        <v>17884.4237</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>528</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4018,24 +3867,19 @@
         <v>268.8711</v>
       </c>
       <c r="G100" t="n">
-        <v>17615.5526</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>528</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4057,24 +3901,19 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>17616.5526</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>528</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4096,24 +3935,19 @@
         <v>3919.6107</v>
       </c>
       <c r="G102" t="n">
-        <v>21536.1633</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>528</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4135,24 +3969,19 @@
         <v>202.909</v>
       </c>
       <c r="G103" t="n">
-        <v>21739.0723</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>528</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4174,24 +4003,19 @@
         <v>161.7</v>
       </c>
       <c r="G104" t="n">
-        <v>21577.3723</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>528</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4213,24 +4037,19 @@
         <v>710.3213</v>
       </c>
       <c r="G105" t="n">
-        <v>21577.3723</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>528</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4252,24 +4071,17 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>21578.3723</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>528</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4291,24 +4103,15 @@
         <v>183.2333</v>
       </c>
       <c r="G107" t="n">
-        <v>21578.3723</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>528</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1.049924242424243</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4330,18 +4133,15 @@
         <v>35.906</v>
       </c>
       <c r="G108" t="n">
-        <v>21578.3723</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4363,18 +4163,15 @@
         <v>90.163</v>
       </c>
       <c r="G109" t="n">
-        <v>21488.2093</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4396,18 +4193,15 @@
         <v>115.1147</v>
       </c>
       <c r="G110" t="n">
-        <v>21603.324</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4429,18 +4223,15 @@
         <v>2108.9214</v>
       </c>
       <c r="G111" t="n">
-        <v>19494.4026</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4462,18 +4253,15 @@
         <v>1822.6095</v>
       </c>
       <c r="G112" t="n">
-        <v>19494.4026</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4495,18 +4283,15 @@
         <v>1822.6096</v>
       </c>
       <c r="G113" t="n">
-        <v>17671.793</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4528,18 +4313,15 @@
         <v>1523.665</v>
       </c>
       <c r="G114" t="n">
-        <v>17671.793</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4561,18 +4343,15 @@
         <v>495.7774</v>
       </c>
       <c r="G115" t="n">
-        <v>17671.793</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4594,18 +4373,15 @@
         <v>390.8675</v>
       </c>
       <c r="G116" t="n">
-        <v>17280.9255</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4627,18 +4403,15 @@
         <v>116.5397</v>
       </c>
       <c r="G117" t="n">
-        <v>17164.3858</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4660,18 +4433,15 @@
         <v>87.163</v>
       </c>
       <c r="G118" t="n">
-        <v>17251.5488</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4693,18 +4463,15 @@
         <v>1229.9281</v>
       </c>
       <c r="G119" t="n">
-        <v>18481.4769</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4726,18 +4493,15 @@
         <v>50</v>
       </c>
       <c r="G120" t="n">
-        <v>18431.4769</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4759,18 +4523,15 @@
         <v>1606.761</v>
       </c>
       <c r="G121" t="n">
-        <v>20038.2379</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4792,18 +4553,15 @@
         <v>193.239</v>
       </c>
       <c r="G122" t="n">
-        <v>20038.2379</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4825,18 +4583,15 @@
         <v>140.8</v>
       </c>
       <c r="G123" t="n">
-        <v>20179.0379</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4858,18 +4613,15 @@
         <v>140.448</v>
       </c>
       <c r="G124" t="n">
-        <v>20038.5899</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4891,18 +4643,15 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>20038.5899</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4924,18 +4673,15 @@
         <v>3957.175835489511</v>
       </c>
       <c r="G126" t="n">
-        <v>23995.76573548951</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4957,18 +4703,15 @@
         <v>90.07299999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>23905.69273548951</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4990,18 +4733,15 @@
         <v>185.531</v>
       </c>
       <c r="G128" t="n">
-        <v>23905.69273548951</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5023,18 +4763,15 @@
         <v>700.8794</v>
       </c>
       <c r="G129" t="n">
-        <v>24606.57213548951</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5056,18 +4793,15 @@
         <v>365.6307</v>
       </c>
       <c r="G130" t="n">
-        <v>24606.57213548951</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5089,18 +4823,15 @@
         <v>269.4</v>
       </c>
       <c r="G131" t="n">
-        <v>24606.57213548951</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5122,18 +4853,15 @@
         <v>727.8261</v>
       </c>
       <c r="G132" t="n">
-        <v>23878.74603548951</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5155,18 +4883,15 @@
         <v>211.1163</v>
       </c>
       <c r="G133" t="n">
-        <v>24089.86233548951</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5188,18 +4913,15 @@
         <v>22.8879</v>
       </c>
       <c r="G134" t="n">
-        <v>24112.75023548951</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5221,18 +4943,15 @@
         <v>67.18600000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>24045.56423548951</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5254,18 +4973,15 @@
         <v>73.37050000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>24118.93473548951</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
